--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A6CD2C-A9C6-D24F-A8D9-FE61A2F8F838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADAE1A6-A8A8-7F41-A156-489CAFA39F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="859">
   <si>
     <t>Member/Non-Member - Organization</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>Gordon College</t>
-  </si>
-  <si>
-    <t>Harvard University - Division of Engineering and Applied Physics</t>
   </si>
   <si>
     <t>Keene State College</t>
@@ -679,9 +676,6 @@
     <t>255 Grapevine Rd</t>
   </si>
   <si>
-    <t>29 Oxford Street</t>
-  </si>
-  <si>
     <t>229 Main St</t>
   </si>
   <si>
@@ -1121,9 +1115,6 @@
   </si>
   <si>
     <t>01984-1813</t>
-  </si>
-  <si>
-    <t>02138-2902</t>
   </si>
   <si>
     <t>03435-0001</t>
@@ -1654,9 +1645,6 @@
     <t>Pierre-Richard Cornely</t>
   </si>
   <si>
-    <t>Eric Mazur</t>
-  </si>
-  <si>
     <t>Steven Harfenist</t>
   </si>
   <si>
@@ -1798,9 +1786,6 @@
     <t>akudrolli@clarku.edu</t>
   </si>
   <si>
-    <t>mazur@seas.harvard.edu</t>
-  </si>
-  <si>
     <t>salimbeni@marlboro.edu</t>
   </si>
   <si>
@@ -2011,6 +1996,66 @@
     <t>University of Massachusetts Dartmouth</t>
   </si>
   <si>
+    <t>Zara Yu</t>
+  </si>
+  <si>
+    <t>Co-President: Latika Joshi</t>
+  </si>
+  <si>
+    <t>Mallika Sinha</t>
+  </si>
+  <si>
+    <t>Ryan Corzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrena Prytko </t>
+  </si>
+  <si>
+    <t>Aaron Chizhik</t>
+  </si>
+  <si>
+    <t>Michael Frank</t>
+  </si>
+  <si>
+    <t>Meredith Loscar</t>
+  </si>
+  <si>
+    <t>Savanna Coffel; Iris Sung</t>
+  </si>
+  <si>
+    <t>Matthew Stearns</t>
+  </si>
+  <si>
+    <t>zarayu@mit.edu</t>
+  </si>
+  <si>
+    <t>joshi23l@mtholyoke.edu</t>
+  </si>
+  <si>
+    <t>mallika.sinha@tufts.edu</t>
+  </si>
+  <si>
+    <t>ryan.corzo@maine.edu</t>
+  </si>
+  <si>
+    <t>smprytko@wpi.edu</t>
+  </si>
+  <si>
+    <t>aaron.chizhik@yale.edu</t>
+  </si>
+  <si>
+    <t>michael.frank@uconn.edu</t>
+  </si>
+  <si>
+    <t>mloscar@umass.edu</t>
+  </si>
+  <si>
+    <t>isung@college.harvard.edu</t>
+  </si>
+  <si>
+    <t>mstearns1@umassd.edu</t>
+  </si>
+  <si>
     <t>Katerina Donahue</t>
   </si>
   <si>
@@ -2030,9 +2075,6 @@
   </si>
   <si>
     <t>Noah Stiegler</t>
-  </si>
-  <si>
-    <t>Ryan Corzo</t>
   </si>
   <si>
     <t>Patrick O'Keefe</t>
@@ -2096,9 +2138,6 @@
     <t>amessier@smith.edu</t>
   </si>
   <si>
-    <t>ryan.corzo@maine.edu</t>
-  </si>
-  <si>
     <t>Patrick_OKeefe2@student.uml.edu</t>
   </si>
   <si>
@@ -2172,9 +2211,6 @@
     <t>kpanebia@mit.edu</t>
   </si>
   <si>
-    <t>joshi23l@mtholyoke.edu</t>
-  </si>
-  <si>
     <t>ckombo@mail.smcvt.edu</t>
   </si>
   <si>
@@ -2361,9 +2397,6 @@
     <t>Jeremy.Elliott@uvm.edu</t>
   </si>
   <si>
-    <t>smprytko@wpi.edu</t>
-  </si>
-  <si>
     <t>Rose.Branson@yale.edu, Ethan.Martinez@yale.edu, Robin.Tsai@yale.edu, Ryan.Bose-Roy@yale.edu, David.Saunders@yale.edu, Ruthie.Gu@yale.edu, Maddi Brown@yale.edu, Lumisa.Bista@yale.edu, Misheal.Saah@yale.edu, Maddie.Butchko@yale.edu</t>
   </si>
   <si>
@@ -2439,27 +2472,6 @@
     <t>2011-2017</t>
   </si>
   <si>
-    <t>05/10/2024</t>
-  </si>
-  <si>
-    <t>05/28/2024</t>
-  </si>
-  <si>
-    <t>04/29/2024</t>
-  </si>
-  <si>
-    <t>04/30/2024</t>
-  </si>
-  <si>
-    <t>05/03/2023</t>
-  </si>
-  <si>
-    <t>05/03/2024</t>
-  </si>
-  <si>
-    <t>04/19/2024</t>
-  </si>
-  <si>
     <t>Fall 2020</t>
   </si>
   <si>
@@ -2583,19 +2595,19 @@
     <t>2015; 2016; 2018; 2019; 2021</t>
   </si>
   <si>
+    <t>2017; 2018; 2019; 2021</t>
+  </si>
+  <si>
+    <t>2017; 2018; 2019;2021</t>
+  </si>
+  <si>
+    <t>Part of umas dartmouth</t>
+  </si>
+  <si>
+    <t>2015; 2016; 2017; 2018; 2019</t>
+  </si>
+  <si>
     <t>2016; 2017; 2018; 2019</t>
-  </si>
-  <si>
-    <t>2017; 2018; 2019; 2021</t>
-  </si>
-  <si>
-    <t>2017; 2018; 2019;2021</t>
-  </si>
-  <si>
-    <t>Part of umas dartmouth</t>
-  </si>
-  <si>
-    <t>2015; 2016; 2017; 2018; 2019</t>
   </si>
   <si>
     <t>2019;2021</t>
@@ -2970,22 +2982,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY74"/>
+  <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AV31" sqref="AV31"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" customWidth="1"/>
-    <col min="33" max="33" width="23.6640625" customWidth="1"/>
-    <col min="34" max="34" width="38.83203125" customWidth="1"/>
-    <col min="35" max="35" width="24" customWidth="1"/>
-    <col min="36" max="36" width="28.83203125" customWidth="1"/>
-    <col min="48" max="48" width="49" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
+    <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="30" max="32" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="60.6640625" customWidth="1"/>
+    <col min="34" max="34" width="47.6640625" customWidth="1"/>
+    <col min="35" max="35" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
@@ -3148,31 +3160,31 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H2">
         <v>617</v>
       </c>
       <c r="I2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L2">
         <v>607</v>
@@ -3193,76 +3205,76 @@
         <v>19490</v>
       </c>
       <c r="R2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="S2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="W2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB2" t="s">
         <v>506</v>
       </c>
-      <c r="AA2" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>509</v>
-      </c>
       <c r="AC2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AD2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AE2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AG2" t="s">
         <v>51</v>
       </c>
       <c r="AJ2" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="AK2" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="AN2" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AO2" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="AP2" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="AQ2" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="AR2" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="AS2">
         <v>2019</v>
       </c>
       <c r="AX2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
@@ -3270,16 +3282,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G3">
         <v>8632641</v>
@@ -3288,13 +3300,13 @@
         <v>401</v>
       </c>
       <c r="I3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L3">
         <v>725</v>
@@ -3309,67 +3321,67 @@
         <v>725</v>
       </c>
       <c r="P3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="T3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="W3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="X3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AC3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AD3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AE3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AG3" t="s">
         <v>52</v>
       </c>
       <c r="AR3" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="AT3" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="AW3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AX3" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="AY3" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
@@ -3377,28 +3389,28 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H4">
         <v>603</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L4">
         <v>1472</v>
@@ -3413,49 +3425,49 @@
         <v>1472</v>
       </c>
       <c r="R4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="S4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="T4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="W4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="X4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AA4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AC4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AG4" t="s">
         <v>53</v>
       </c>
       <c r="AJ4" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="AK4" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="AX4" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY4">
         <v>2023</v>
@@ -3466,31 +3478,31 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H5">
         <v>203</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L5">
         <v>1867</v>
@@ -3511,34 +3523,34 @@
         <v>33209</v>
       </c>
       <c r="R5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="S5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="V5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="W5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AC5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AD5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AE5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AG5" t="s">
         <v>54</v>
@@ -3546,11 +3558,8 @@
       <c r="AR5">
         <v>2019</v>
       </c>
-      <c r="AV5" t="s">
-        <v>801</v>
-      </c>
       <c r="AX5" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY5">
         <v>2023</v>
@@ -3561,31 +3570,31 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H6">
         <v>617</v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L6">
         <v>2729</v>
@@ -3600,52 +3609,52 @@
         <v>2729</v>
       </c>
       <c r="T6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="W6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AC6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AD6" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AE6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AG6" t="s">
         <v>55</v>
       </c>
       <c r="AJ6" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="AK6" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="AQ6" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="AR6">
         <v>2012</v>
       </c>
       <c r="AX6" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY6">
         <v>2023</v>
@@ -3656,31 +3665,31 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H7">
         <v>617</v>
       </c>
       <c r="I7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L7">
         <v>4179</v>
@@ -3701,79 +3710,82 @@
         <v>30073</v>
       </c>
       <c r="R7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="S7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="T7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="U7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="V7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="X7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Y7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Z7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AC7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AD7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AE7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AG7" t="s">
         <v>56</v>
       </c>
+      <c r="AH7" t="s">
+        <v>656</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>666</v>
+      </c>
       <c r="AJ7" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="AK7" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="AL7" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="AM7" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="AN7" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="AO7" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="AR7" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="AS7">
         <v>2021</v>
       </c>
-      <c r="AV7" t="s">
-        <v>802</v>
-      </c>
       <c r="AX7" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="AY7">
         <v>2023</v>
@@ -3784,31 +3796,31 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H8">
         <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L8">
         <v>4555</v>
@@ -3829,73 +3841,76 @@
         <v>33733</v>
       </c>
       <c r="R8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="S8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="T8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="W8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="X8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AE8" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AG8" t="s">
         <v>57</v>
       </c>
+      <c r="AH8" t="s">
+        <v>657</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>667</v>
+      </c>
       <c r="AL8" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="AM8" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="AN8" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="AO8" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="AP8" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="AQ8" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="AS8" t="s">
-        <v>791</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AY8">
         <v>2023</v>
@@ -3906,19 +3921,19 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H9">
         <v>603</v>
@@ -3927,10 +3942,10 @@
         <v>3102</v>
       </c>
       <c r="J9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L9">
         <v>6101</v>
@@ -3951,58 +3966,55 @@
         <v>43206</v>
       </c>
       <c r="R9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="S9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="V9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="W9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Z9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AC9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AD9" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AE9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AG9" t="s">
         <v>58</v>
       </c>
       <c r="AR9" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="AS9">
         <v>2022</v>
       </c>
       <c r="AU9" t="s">
-        <v>798</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="AW9" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="AX9" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AY9" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
@@ -4010,31 +4022,31 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H10">
         <v>802</v>
       </c>
       <c r="I10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L10">
         <v>6243</v>
@@ -4055,61 +4067,61 @@
         <v>41922</v>
       </c>
       <c r="R10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="S10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="V10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Z10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AC10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AD10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AE10" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AG10" t="s">
         <v>59</v>
       </c>
       <c r="AJ10" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="AK10" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="AL10" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="AM10" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="AN10" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="AO10" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="AR10">
         <v>2019</v>
       </c>
       <c r="AU10" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="AY10">
         <v>2022</v>
@@ -4120,28 +4132,28 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H11">
         <v>413</v>
       </c>
       <c r="I11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L11">
         <v>6466</v>
@@ -4156,58 +4168,58 @@
         <v>6466</v>
       </c>
       <c r="V11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AC11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AD11">
         <v>4135853797</v>
       </c>
       <c r="AE11" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AG11" t="s">
         <v>60</v>
       </c>
       <c r="AJ11" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="AK11" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="AL11" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="AM11" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="AN11" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="AO11" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="AR11">
         <v>2022</v>
       </c>
       <c r="AX11" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="AY11" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
@@ -4215,31 +4227,31 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H12">
         <v>617</v>
       </c>
       <c r="I12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L12">
         <v>6917</v>
@@ -4260,67 +4272,67 @@
         <v>40319</v>
       </c>
       <c r="R12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="S12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="T12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="W12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="X12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AC12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AD12">
         <v>6175738013</v>
       </c>
       <c r="AE12" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AF12" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AG12" t="s">
         <v>61</v>
       </c>
       <c r="AR12" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="AT12" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="AU12" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="AX12" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="AY12" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
@@ -4328,31 +4340,31 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H13">
         <v>860</v>
       </c>
       <c r="I13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L13">
         <v>7368</v>
@@ -4373,46 +4385,46 @@
         <v>18044</v>
       </c>
       <c r="R13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="T13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="X13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AC13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AD13" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AE13" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AG13" t="s">
         <v>62</v>
@@ -4421,10 +4433,10 @@
         <v>2012</v>
       </c>
       <c r="AX13" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY13" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
@@ -4432,34 +4444,34 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H14">
         <v>617</v>
       </c>
       <c r="I14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L14">
         <v>7398</v>
@@ -4480,73 +4492,76 @@
         <v>17307</v>
       </c>
       <c r="R14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="S14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="T14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="W14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Z14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AC14" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AG14" t="s">
         <v>63</v>
       </c>
+      <c r="AH14" t="s">
+        <v>658</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>668</v>
+      </c>
       <c r="AJ14" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="AK14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="AM14" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="AN14" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="AO14" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="AP14" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="AQ14" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="AS14" t="s">
-        <v>792</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AX14" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="AY14" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
@@ -4554,31 +4569,31 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H15">
         <v>207</v>
       </c>
       <c r="I15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L15">
         <v>4043</v>
@@ -4599,73 +4614,79 @@
         <v>18043</v>
       </c>
       <c r="R15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="S15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="T15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="U15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="V15" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="W15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="X15" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Y15" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Z15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AC15" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AD15" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AE15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AF15" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AG15" t="s">
         <v>64</v>
       </c>
+      <c r="AH15" t="s">
+        <v>659</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>669</v>
+      </c>
       <c r="AJ15" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="AK15" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="AL15" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="AM15" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AN15" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AO15" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="AR15" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="AS15">
         <v>2018</v>
@@ -4673,17 +4694,14 @@
       <c r="AT15">
         <v>2017</v>
       </c>
-      <c r="AV15" t="s">
-        <v>803</v>
-      </c>
       <c r="AW15" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="AX15" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY15" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
@@ -4691,28 +4709,28 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16">
         <v>617</v>
       </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L16">
         <v>616</v>
@@ -4733,52 +4751,52 @@
         <v>27895</v>
       </c>
       <c r="R16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="S16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="T16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="W16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AC16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AD16" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AG16" t="s">
         <v>65</v>
       </c>
       <c r="AR16" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="AT16" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="AY16" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.2">
@@ -4786,31 +4804,31 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H17">
         <v>978</v>
       </c>
       <c r="I17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L17">
         <v>3903</v>
@@ -4831,70 +4849,70 @@
         <v>25165</v>
       </c>
       <c r="R17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="T17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="W17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="X17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB17" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AC17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AD17" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AG17" t="s">
         <v>66</v>
       </c>
       <c r="AJ17" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="AK17" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="AL17" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="AM17" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="AN17" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="AO17" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="AP17" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="AQ17" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="AY17">
         <v>2023</v>
@@ -4905,31 +4923,31 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18">
         <v>603</v>
       </c>
       <c r="I18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L18">
         <v>4721</v>
@@ -4950,43 +4968,43 @@
         <v>18409</v>
       </c>
       <c r="R18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="W18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AC18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AD18" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AG18" t="s">
         <v>67</v>
@@ -4995,7 +5013,7 @@
         <v>2012</v>
       </c>
       <c r="AX18" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="AY18">
         <v>2023</v>
@@ -5006,31 +5024,31 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H19">
         <v>802</v>
       </c>
       <c r="I19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L19">
         <v>7673</v>
@@ -5051,76 +5069,76 @@
         <v>38107</v>
       </c>
       <c r="R19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="T19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="W19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="X19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB19" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AC19" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AD19" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AG19" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AJ19" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="AK19" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AL19" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="AM19" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="AN19" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="AO19" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="AP19" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="AQ19" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="AX19" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="AY19" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
@@ -5128,31 +5146,31 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H20">
         <v>508</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L20">
         <v>8406</v>
@@ -5173,58 +5191,64 @@
         <v>25619</v>
       </c>
       <c r="R20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="S20" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="V20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="W20" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Z20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB20" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AC20" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AE20" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AG20" t="s">
         <v>69</v>
       </c>
+      <c r="AH20" t="s">
+        <v>660</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>670</v>
+      </c>
       <c r="AJ20" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="AK20" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="AL20" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="AM20" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="AN20" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="AO20" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="AP20" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="AQ20" t="s">
-        <v>775</v>
+        <v>670</v>
       </c>
       <c r="AR20">
         <v>2019</v>
@@ -5233,10 +5257,10 @@
         <v>2014</v>
       </c>
       <c r="AX20" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY20" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
@@ -5244,28 +5268,28 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H21">
         <v>203</v>
       </c>
       <c r="I21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L21">
         <v>8528</v>
@@ -5286,67 +5310,70 @@
         <v>44112</v>
       </c>
       <c r="R21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="S21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="V21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="W21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Z21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB21" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AC21" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AE21" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AG21" t="s">
         <v>70</v>
       </c>
+      <c r="AH21" t="s">
+        <v>661</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>671</v>
+      </c>
       <c r="AJ21" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="AK21" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="AN21" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="AO21" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="AP21" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="AQ21" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="AR21" t="s">
-        <v>785</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="AW21" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AX21" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="AY21" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
@@ -5354,28 +5381,28 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H22">
         <v>413</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M22">
         <v>36581739</v>
@@ -5387,22 +5414,22 @@
         <v>181</v>
       </c>
       <c r="V22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="W22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AC22" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AD22" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AE22" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AG22" t="s">
         <v>71</v>
@@ -5416,31 +5443,31 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H23">
         <v>617</v>
       </c>
       <c r="I23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L23">
         <v>625</v>
@@ -5461,73 +5488,73 @@
         <v>29692</v>
       </c>
       <c r="R23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="S23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V23" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="W23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AC23" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AD23" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AE23" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AG23" t="s">
         <v>72</v>
       </c>
       <c r="AJ23" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="AK23" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="AL23" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="AM23" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="AN23" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="AO23" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="AP23" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="AQ23" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="AR23" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="AX23" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.2">
@@ -5535,28 +5562,28 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H24">
         <v>508</v>
       </c>
       <c r="I24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L24">
         <v>697</v>
@@ -5571,58 +5598,58 @@
         <v>697</v>
       </c>
       <c r="T24" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U24" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V24" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W24" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Z24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AC24" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AD24" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AG24" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AJ24" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="AK24" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="AL24" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="AM24" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="AN24" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="AO24" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="AR24">
         <v>2019</v>
       </c>
       <c r="AY24" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.2">
@@ -5630,31 +5657,31 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H25">
         <v>413</v>
       </c>
       <c r="I25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L25">
         <v>4812</v>
@@ -5675,58 +5702,58 @@
         <v>41012</v>
       </c>
       <c r="R25" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="S25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="T25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="W25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Z25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AC25" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AD25" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AG25" t="s">
         <v>74</v>
       </c>
       <c r="AJ25" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="AK25" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="AL25" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="AM25" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="AN25" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="AO25" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="AR25">
         <v>2019</v>
@@ -5735,7 +5762,7 @@
         <v>2012</v>
       </c>
       <c r="AY25" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.2">
@@ -5743,31 +5770,31 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H26">
         <v>401</v>
       </c>
       <c r="I26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J26" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K26" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L26">
         <v>5737</v>
@@ -5788,52 +5815,52 @@
         <v>22787</v>
       </c>
       <c r="R26" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="S26" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="T26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="W26" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="X26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB26" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AC26" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AG26" t="s">
         <v>75</v>
       </c>
       <c r="AJ26" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="AK26" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="AX26" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.2">
@@ -5841,31 +5868,31 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H27">
         <v>860</v>
       </c>
       <c r="I27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L27">
         <v>1367</v>
@@ -5886,61 +5913,64 @@
         <v>18408</v>
       </c>
       <c r="R27" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="S27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="W27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB27" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AC27" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AD27" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AE27" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AG27" t="s">
         <v>76</v>
       </c>
+      <c r="AH27" t="s">
+        <v>662</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>672</v>
+      </c>
       <c r="AR27" t="s">
-        <v>786</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="AX27" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY27" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.2">
@@ -5948,28 +5978,28 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H28">
         <v>413</v>
       </c>
       <c r="I28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J28" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K28" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L28">
         <v>4187</v>
@@ -5984,43 +6014,49 @@
         <v>4187</v>
       </c>
       <c r="T28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V28" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="W28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AC28" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AD28" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AG28" t="s">
         <v>77</v>
       </c>
+      <c r="AH28" t="s">
+        <v>663</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>673</v>
+      </c>
       <c r="AY28" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.2">
@@ -6028,31 +6064,31 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H29">
         <v>508</v>
       </c>
       <c r="I29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L29">
         <v>8145</v>
@@ -6067,55 +6103,55 @@
         <v>8145</v>
       </c>
       <c r="Z29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AC29" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AD29" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AE29" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF29" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AG29" t="s">
         <v>78</v>
       </c>
       <c r="AJ29" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="AK29" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="AL29" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="AM29" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="AN29" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="AO29" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="AP29" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="AQ29" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="AX29" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
@@ -6126,10 +6162,10 @@
         <v>413</v>
       </c>
       <c r="J30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M30">
         <v>36581728</v>
@@ -6141,13 +6177,13 @@
         <v>167</v>
       </c>
       <c r="Z30" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AG30" t="s">
         <v>79</v>
       </c>
       <c r="AX30" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
@@ -6158,10 +6194,10 @@
         <v>978</v>
       </c>
       <c r="J31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M31">
         <v>36581837</v>
@@ -6173,13 +6209,13 @@
         <v>307</v>
       </c>
       <c r="Z31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AG31" t="s">
         <v>80</v>
       </c>
       <c r="AX31" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
@@ -6187,31 +6223,31 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H32">
         <v>207</v>
       </c>
       <c r="I32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L32">
         <v>445</v>
@@ -6226,28 +6262,28 @@
         <v>445</v>
       </c>
       <c r="V32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="W32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z32" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB32" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AC32" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AD32" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AG32" t="s">
         <v>81</v>
       </c>
       <c r="AX32" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.2">
@@ -6255,10 +6291,10 @@
         <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M33">
         <v>36581845</v>
@@ -6270,7 +6306,7 @@
         <v>463</v>
       </c>
       <c r="Z33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG33" t="s">
         <v>82</v>
@@ -6284,10 +6320,10 @@
         <v>617</v>
       </c>
       <c r="J34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M34">
         <v>36582040</v>
@@ -6302,16 +6338,16 @@
         <v>41738</v>
       </c>
       <c r="Z34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AG34" t="s">
         <v>83</v>
       </c>
       <c r="AX34" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY34" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.2">
@@ -6319,31 +6355,31 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H35">
         <v>207</v>
       </c>
       <c r="I35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L35">
         <v>634</v>
@@ -6358,40 +6394,40 @@
         <v>634</v>
       </c>
       <c r="V35" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="W35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB35" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AC35" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AD35" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AG35" t="s">
         <v>84</v>
       </c>
       <c r="AR35" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="AS35" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="AW35" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="AX35" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY35" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.2">
@@ -6399,28 +6435,28 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H36">
         <v>781</v>
       </c>
       <c r="I36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J36" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K36" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L36">
         <v>661</v>
@@ -6435,40 +6471,40 @@
         <v>661</v>
       </c>
       <c r="T36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V36" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="W36" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="X36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB36" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AC36" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AG36" t="s">
         <v>85</v>
       </c>
       <c r="AX36" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.2">
@@ -6476,10 +6512,10 @@
         <v>86</v>
       </c>
       <c r="J37" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K37" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M37">
         <v>36581860</v>
@@ -6491,7 +6527,7 @@
         <v>959</v>
       </c>
       <c r="Z37" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AG37" t="s">
         <v>86</v>
@@ -6505,31 +6541,31 @@
         <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H38">
         <v>860</v>
       </c>
       <c r="I38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L38">
         <v>1071</v>
@@ -6550,52 +6586,52 @@
         <v>33738</v>
       </c>
       <c r="R38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="S38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="W38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y38" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z38" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA38" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB38" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AC38" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AD38" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AG38" t="s">
         <v>87</v>
       </c>
       <c r="AR38" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="AX38" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.2">
@@ -6603,31 +6639,31 @@
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H39">
         <v>508</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L39">
         <v>1223</v>
@@ -6648,49 +6684,49 @@
         <v>22763</v>
       </c>
       <c r="R39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="T39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="W39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB39" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AC39" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AD39" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AG39" t="s">
         <v>88</v>
       </c>
       <c r="AR39" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.2">
@@ -6698,31 +6734,31 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H40">
         <v>207</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K40" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L40">
         <v>1263</v>
@@ -6743,37 +6779,37 @@
         <v>17658</v>
       </c>
       <c r="R40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="V40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="W40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Z40" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA40" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AG40" t="s">
         <v>89</v>
       </c>
       <c r="AX40" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AY40" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.2">
@@ -6781,31 +6817,31 @@
         <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H41">
         <v>508</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L41">
         <v>2883</v>
@@ -6826,49 +6862,49 @@
         <v>25618</v>
       </c>
       <c r="R41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="S41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="W41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z41" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA41" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB41" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AC41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD41" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AG41" t="s">
         <v>90</v>
       </c>
       <c r="AJ41" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.2">
@@ -6876,31 +6912,31 @@
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H42">
         <v>860</v>
       </c>
       <c r="I42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L42">
         <v>1359</v>
@@ -6921,49 +6957,49 @@
         <v>35543</v>
       </c>
       <c r="R42" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="S42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V42" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="W42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z42" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA42" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB42" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AC42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD42" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AG42" t="s">
         <v>91</v>
       </c>
       <c r="AX42" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.2">
@@ -6971,31 +7007,31 @@
         <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H43">
         <v>617</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L43">
         <v>1747</v>
@@ -7010,37 +7046,37 @@
         <v>1747</v>
       </c>
       <c r="T43" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U43" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V43" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="W43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X43" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y43" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z43" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB43" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AC43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD43" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AG43" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.2">
@@ -7051,10 +7087,10 @@
         <v>617</v>
       </c>
       <c r="J44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M44">
         <v>36581889</v>
@@ -7066,7 +7102,7 @@
         <v>1803</v>
       </c>
       <c r="Z44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AG44" t="s">
         <v>93</v>
@@ -7080,10 +7116,10 @@
         <v>978</v>
       </c>
       <c r="J45" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K45" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M45">
         <v>36581896</v>
@@ -7095,7 +7131,7 @@
         <v>1963</v>
       </c>
       <c r="Z45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AG45" t="s">
         <v>94</v>
@@ -7112,10 +7148,10 @@
         <v>800</v>
       </c>
       <c r="J46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M46">
         <v>36581908</v>
@@ -7127,13 +7163,13 @@
         <v>2445</v>
       </c>
       <c r="Z46" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AG46" t="s">
         <v>95</v>
       </c>
       <c r="AY46" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.2">
@@ -7141,28 +7177,28 @@
         <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H47">
         <v>978</v>
       </c>
       <c r="I47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J47" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L47">
         <v>2473</v>
@@ -7183,105 +7219,144 @@
         <v>41015</v>
       </c>
       <c r="R47" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="S47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T47" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U47" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V47" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="W47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X47" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y47" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB47" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AC47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD47" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AE47" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AG47" t="s">
         <v>96</v>
       </c>
       <c r="AJ47" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="AX47" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="AY47" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="F48" t="s">
         <v>285</v>
       </c>
+      <c r="G48" t="s">
+        <v>318</v>
+      </c>
       <c r="H48">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="L48">
+        <v>3490</v>
       </c>
       <c r="M48">
-        <v>36581668</v>
+        <v>25539814</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
       <c r="O48">
-        <v>2740</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>506</v>
+        <v>3490</v>
+      </c>
+      <c r="P48">
+        <v>430</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>33700</v>
+      </c>
+      <c r="T48" t="s">
+        <v>443</v>
+      </c>
+      <c r="U48" t="s">
+        <v>443</v>
+      </c>
+      <c r="V48" t="s">
+        <v>477</v>
+      </c>
+      <c r="W48" t="s">
+        <v>161</v>
+      </c>
+      <c r="X48" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>503</v>
       </c>
       <c r="AB48" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AC48" t="s">
-        <v>590</v>
+        <v>161</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>625</v>
       </c>
       <c r="AG48" t="s">
         <v>97</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>830</v>
       </c>
       <c r="AY48" t="s">
         <v>849</v>
@@ -7291,186 +7366,153 @@
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" t="s">
-        <v>219</v>
-      </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
         <v>287</v>
       </c>
-      <c r="G49" t="s">
-        <v>320</v>
-      </c>
       <c r="H49">
-        <v>603</v>
+        <v>802</v>
       </c>
       <c r="I49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s">
-        <v>385</v>
-      </c>
-      <c r="L49">
-        <v>3490</v>
+        <v>382</v>
       </c>
       <c r="M49">
-        <v>25539814</v>
+        <v>36581707</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49">
-        <v>3490</v>
-      </c>
-      <c r="P49">
-        <v>430</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>33700</v>
-      </c>
-      <c r="T49" t="s">
-        <v>446</v>
-      </c>
-      <c r="U49" t="s">
-        <v>446</v>
-      </c>
-      <c r="V49" t="s">
-        <v>480</v>
-      </c>
-      <c r="W49" t="s">
-        <v>162</v>
-      </c>
-      <c r="X49" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>506</v>
+        <v>4107</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>504</v>
       </c>
       <c r="AB49" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AC49" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="AG49" t="s">
         <v>98</v>
       </c>
-      <c r="AX49" t="s">
-        <v>826</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>845</v>
+      <c r="AH49" t="s">
+        <v>664</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H50">
-        <v>802</v>
+        <v>978</v>
       </c>
       <c r="I50" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M50">
-        <v>36581707</v>
+        <v>36581712</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
       <c r="O50">
-        <v>4107</v>
+        <v>4219</v>
       </c>
       <c r="Z50" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AB50" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AC50" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AG50" t="s">
         <v>99</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>831</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F51" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H51">
-        <v>978</v>
-      </c>
-      <c r="I51" t="s">
-        <v>369</v>
+        <v>802</v>
+      </c>
+      <c r="I51">
+        <v>5753</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M51">
-        <v>36581712</v>
+        <v>36581713</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>4219</v>
+        <v>4283</v>
       </c>
       <c r="Z51" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AB51" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AC51" t="s">
-        <v>592</v>
+        <v>162</v>
       </c>
       <c r="AG51" t="s">
         <v>100</v>
-      </c>
-      <c r="AX51" t="s">
-        <v>827</v>
-      </c>
-      <c r="AY51" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.2">
@@ -7481,46 +7523,97 @@
         <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="F52" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="G52" t="s">
+        <v>319</v>
       </c>
       <c r="H52">
-        <v>802</v>
-      </c>
-      <c r="I52">
-        <v>5753</v>
+        <v>617</v>
+      </c>
+      <c r="I52" t="s">
+        <v>367</v>
       </c>
       <c r="J52" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K52" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="L52">
+        <v>4935</v>
       </c>
       <c r="M52">
-        <v>36581713</v>
+        <v>25539869</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="O52">
-        <v>4283</v>
+        <v>4935</v>
+      </c>
+      <c r="P52">
+        <v>412</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>31565</v>
+      </c>
+      <c r="R52" t="s">
+        <v>412</v>
+      </c>
+      <c r="S52" t="s">
+        <v>163</v>
+      </c>
+      <c r="T52" t="s">
+        <v>412</v>
+      </c>
+      <c r="U52" t="s">
+        <v>448</v>
+      </c>
+      <c r="V52" t="s">
+        <v>412</v>
+      </c>
+      <c r="W52" t="s">
+        <v>163</v>
+      </c>
+      <c r="X52" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>443</v>
       </c>
       <c r="Z52" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>503</v>
       </c>
       <c r="AB52" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC52" t="s">
-        <v>163</v>
+        <v>588</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>645</v>
       </c>
       <c r="AG52" t="s">
         <v>101</v>
+      </c>
+      <c r="AR52" s="2">
+        <v>85.404166666666669</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>808</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.2">
@@ -7531,303 +7624,288 @@
         <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="F53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H53">
-        <v>617</v>
+        <v>802</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J53" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s">
-        <v>385</v>
-      </c>
-      <c r="L53">
-        <v>4935</v>
+        <v>382</v>
       </c>
       <c r="M53">
-        <v>25539869</v>
+        <v>36581740</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
       <c r="O53">
-        <v>4935</v>
-      </c>
-      <c r="P53">
-        <v>412</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>31565</v>
-      </c>
-      <c r="R53" t="s">
-        <v>415</v>
-      </c>
-      <c r="S53" t="s">
-        <v>164</v>
-      </c>
-      <c r="T53" t="s">
-        <v>415</v>
-      </c>
-      <c r="U53" t="s">
-        <v>451</v>
+        <v>5008</v>
       </c>
       <c r="V53" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="W53" t="s">
         <v>164</v>
       </c>
-      <c r="X53" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>446</v>
-      </c>
       <c r="Z53" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AB53" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AC53" t="s">
-        <v>593</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="AG53" t="s">
         <v>102</v>
       </c>
-      <c r="AR53" s="2">
-        <v>85.404166666666669</v>
-      </c>
-      <c r="AT53" t="s">
-        <v>797</v>
+      <c r="AJ53" t="s">
+        <v>694</v>
       </c>
       <c r="AX53" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" t="s">
-        <v>274</v>
-      </c>
-      <c r="F54" t="s">
-        <v>289</v>
-      </c>
-      <c r="G54" t="s">
-        <v>322</v>
-      </c>
       <c r="H54">
-        <v>802</v>
-      </c>
-      <c r="I54" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="J54" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K54" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M54">
-        <v>36581740</v>
+        <v>36581764</v>
       </c>
       <c r="N54">
         <v>1</v>
       </c>
       <c r="O54">
-        <v>5008</v>
-      </c>
-      <c r="V54" t="s">
-        <v>481</v>
-      </c>
-      <c r="W54" t="s">
-        <v>165</v>
+        <v>5930</v>
       </c>
       <c r="Z54" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>548</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="AG54" t="s">
         <v>103</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>680</v>
-      </c>
-      <c r="AX54" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>104</v>
       </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" t="s">
+        <v>283</v>
+      </c>
       <c r="H55">
-        <v>518</v>
+        <v>617</v>
+      </c>
+      <c r="I55" t="s">
+        <v>369</v>
       </c>
       <c r="J55" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K55" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="L55">
+        <v>6442</v>
       </c>
       <c r="M55">
-        <v>36581764</v>
+        <v>26089251</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
       <c r="O55">
-        <v>5930</v>
+        <v>6442</v>
+      </c>
+      <c r="T55" t="s">
+        <v>443</v>
+      </c>
+      <c r="U55" t="s">
+        <v>443</v>
+      </c>
+      <c r="V55" t="s">
+        <v>479</v>
+      </c>
+      <c r="W55" t="s">
+        <v>165</v>
+      </c>
+      <c r="X55" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>443</v>
       </c>
       <c r="Z55" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>590</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>646</v>
       </c>
       <c r="AG55" t="s">
         <v>104</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>105</v>
       </c>
-      <c r="B56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" t="s">
-        <v>224</v>
-      </c>
-      <c r="E56" t="s">
-        <v>248</v>
-      </c>
-      <c r="F56" t="s">
-        <v>285</v>
-      </c>
       <c r="H56">
-        <v>617</v>
-      </c>
-      <c r="I56" t="s">
-        <v>372</v>
+        <v>508</v>
       </c>
       <c r="J56" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K56" t="s">
-        <v>385</v>
-      </c>
-      <c r="L56">
-        <v>6442</v>
+        <v>382</v>
       </c>
       <c r="M56">
-        <v>26089251</v>
+        <v>36581786</v>
       </c>
       <c r="N56">
         <v>1</v>
       </c>
       <c r="O56">
-        <v>6442</v>
-      </c>
-      <c r="T56" t="s">
-        <v>446</v>
-      </c>
-      <c r="U56" t="s">
-        <v>446</v>
-      </c>
-      <c r="V56" t="s">
-        <v>482</v>
-      </c>
-      <c r="W56" t="s">
-        <v>166</v>
-      </c>
-      <c r="X56" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>446</v>
+        <v>6562</v>
       </c>
       <c r="Z56" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>549</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>651</v>
+        <v>504</v>
       </c>
       <c r="AG56" t="s">
         <v>105</v>
       </c>
       <c r="AY56" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>106</v>
       </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" t="s">
+        <v>286</v>
+      </c>
       <c r="H57">
-        <v>508</v>
+        <v>203</v>
+      </c>
+      <c r="I57" t="s">
+        <v>370</v>
       </c>
       <c r="J57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K57" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="L57">
+        <v>6586</v>
       </c>
       <c r="M57">
-        <v>36581786</v>
+        <v>26089256</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
       <c r="O57">
-        <v>6562</v>
+        <v>6586</v>
+      </c>
+      <c r="R57" t="s">
+        <v>413</v>
+      </c>
+      <c r="S57" t="s">
+        <v>166</v>
+      </c>
+      <c r="T57" t="s">
+        <v>443</v>
+      </c>
+      <c r="U57" t="s">
+        <v>443</v>
+      </c>
+      <c r="V57" t="s">
+        <v>413</v>
+      </c>
+      <c r="W57" t="s">
+        <v>166</v>
+      </c>
+      <c r="X57" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>443</v>
       </c>
       <c r="Z57" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>166</v>
       </c>
       <c r="AG57" t="s">
         <v>106</v>
       </c>
-      <c r="AY57" t="s">
-        <v>852</v>
+      <c r="AR57" t="s">
+        <v>800</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.2">
@@ -7838,82 +7916,73 @@
         <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="G58" t="s">
+        <v>321</v>
       </c>
       <c r="H58">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="I58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J58" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K58" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L58">
-        <v>6586</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>26089256</v>
+        <v>26173198</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>6586</v>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>41760</v>
       </c>
       <c r="R58" t="s">
-        <v>416</v>
-      </c>
-      <c r="S58" t="s">
-        <v>167</v>
-      </c>
-      <c r="T58" t="s">
-        <v>446</v>
-      </c>
-      <c r="U58" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="V58" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="W58" t="s">
         <v>167</v>
       </c>
-      <c r="X58" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>446</v>
-      </c>
       <c r="Z58" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA58" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB58" t="s">
-        <v>416</v>
+        <v>546</v>
       </c>
       <c r="AC58" t="s">
-        <v>167</v>
+        <v>591</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>591</v>
       </c>
       <c r="AG58" t="s">
         <v>107</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>789</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.2">
@@ -7924,321 +7993,342 @@
         <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F59" t="s">
-        <v>291</v>
-      </c>
-      <c r="G59" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="H59">
-        <v>301</v>
+        <v>860</v>
       </c>
       <c r="I59" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J59" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K59" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>7508</v>
       </c>
       <c r="M59">
-        <v>26173198</v>
+        <v>26089281</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>41760</v>
-      </c>
-      <c r="R59" t="s">
-        <v>417</v>
+        <v>7508</v>
+      </c>
+      <c r="T59" t="s">
+        <v>443</v>
+      </c>
+      <c r="U59" t="s">
+        <v>443</v>
       </c>
       <c r="V59" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="W59" t="s">
         <v>168</v>
       </c>
+      <c r="X59" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>443</v>
+      </c>
       <c r="Z59" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AA59" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AB59" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AC59" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AD59" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="AG59" t="s">
         <v>108</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>832</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>109</v>
       </c>
-      <c r="B60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" t="s">
-        <v>267</v>
-      </c>
-      <c r="F60" t="s">
-        <v>288</v>
-      </c>
       <c r="H60">
-        <v>860</v>
-      </c>
-      <c r="I60" t="s">
-        <v>375</v>
+        <v>800</v>
       </c>
       <c r="J60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K60" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L60">
-        <v>7508</v>
+        <v>679</v>
       </c>
       <c r="M60">
-        <v>26089281</v>
+        <v>26089120</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60">
-        <v>7508</v>
+        <v>679</v>
+      </c>
+      <c r="P60">
+        <v>269</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>26087</v>
       </c>
       <c r="T60" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U60" t="s">
-        <v>446</v>
-      </c>
-      <c r="V60" t="s">
-        <v>484</v>
-      </c>
-      <c r="W60" t="s">
-        <v>169</v>
+        <v>443</v>
       </c>
       <c r="X60" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y60" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z60" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA60" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>551</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>597</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>631</v>
+        <v>504</v>
       </c>
       <c r="AG60" t="s">
         <v>109</v>
       </c>
       <c r="AX60" t="s">
-        <v>828</v>
-      </c>
-      <c r="AY60" t="s">
-        <v>845</v>
+        <v>816</v>
       </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61" t="s">
+        <v>286</v>
+      </c>
       <c r="H61">
-        <v>800</v>
+        <v>860</v>
+      </c>
+      <c r="I61" t="s">
+        <v>373</v>
       </c>
       <c r="J61" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K61" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L61">
-        <v>679</v>
+        <v>2690</v>
       </c>
       <c r="M61">
-        <v>26089120</v>
+        <v>26089160</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>679</v>
-      </c>
-      <c r="P61">
-        <v>269</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>26087</v>
+        <v>2690</v>
       </c>
       <c r="T61" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U61" t="s">
-        <v>446</v>
+        <v>443</v>
+      </c>
+      <c r="V61" t="s">
+        <v>482</v>
+      </c>
+      <c r="W61" t="s">
+        <v>169</v>
       </c>
       <c r="X61" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y61" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z61" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AA61" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>593</v>
       </c>
       <c r="AG61" t="s">
         <v>110</v>
       </c>
       <c r="AX61" t="s">
-        <v>812</v>
+        <v>833</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
-      <c r="B62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E62" t="s">
-        <v>276</v>
-      </c>
-      <c r="F62" t="s">
-        <v>288</v>
-      </c>
       <c r="H62">
-        <v>860</v>
-      </c>
-      <c r="I62" t="s">
-        <v>376</v>
+        <v>978</v>
       </c>
       <c r="J62" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K62" t="s">
-        <v>385</v>
-      </c>
-      <c r="L62">
-        <v>2690</v>
+        <v>382</v>
       </c>
       <c r="M62">
-        <v>26089160</v>
+        <v>36581702</v>
       </c>
       <c r="N62">
         <v>1</v>
       </c>
       <c r="O62">
-        <v>2690</v>
-      </c>
-      <c r="T62" t="s">
-        <v>446</v>
-      </c>
-      <c r="U62" t="s">
-        <v>446</v>
-      </c>
-      <c r="V62" t="s">
-        <v>485</v>
-      </c>
-      <c r="W62" t="s">
-        <v>170</v>
-      </c>
-      <c r="X62" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>446</v>
+        <v>3894</v>
       </c>
       <c r="Z62" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>552</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>598</v>
+        <v>504</v>
       </c>
       <c r="AG62" t="s">
         <v>111</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>829</v>
-      </c>
-      <c r="AY62" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" t="s">
+        <v>322</v>
+      </c>
       <c r="H63">
-        <v>978</v>
+        <v>508</v>
+      </c>
+      <c r="I63" t="s">
+        <v>374</v>
       </c>
       <c r="J63" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K63" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="L63">
+        <v>6550</v>
       </c>
       <c r="M63">
-        <v>36581702</v>
+        <v>25540051</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>3894</v>
+        <v>6550</v>
+      </c>
+      <c r="P63">
+        <v>391</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>30438</v>
+      </c>
+      <c r="R63" t="s">
+        <v>415</v>
+      </c>
+      <c r="S63" t="s">
+        <v>170</v>
+      </c>
+      <c r="T63" t="s">
+        <v>443</v>
+      </c>
+      <c r="U63" t="s">
+        <v>443</v>
+      </c>
+      <c r="V63" t="s">
+        <v>415</v>
+      </c>
+      <c r="W63" t="s">
+        <v>170</v>
+      </c>
+      <c r="X63" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>443</v>
       </c>
       <c r="Z63" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>594</v>
       </c>
       <c r="AG63" t="s">
-        <v>112</v>
+        <v>655</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>665</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>675</v>
+      </c>
+      <c r="AT63">
+        <v>2013</v>
       </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.2">
@@ -8249,88 +8339,79 @@
         <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F64" t="s">
-        <v>285</v>
-      </c>
-      <c r="G64" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="H64">
-        <v>508</v>
+        <v>203</v>
       </c>
       <c r="I64" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L64">
-        <v>6550</v>
+        <v>4728</v>
       </c>
       <c r="M64">
-        <v>25540051</v>
+        <v>26089200</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64">
-        <v>6550</v>
-      </c>
-      <c r="P64">
-        <v>391</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>30438</v>
-      </c>
-      <c r="R64" t="s">
-        <v>418</v>
-      </c>
-      <c r="S64" t="s">
-        <v>171</v>
+        <v>4728</v>
       </c>
       <c r="T64" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U64" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V64" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="W64" t="s">
         <v>171</v>
       </c>
       <c r="X64" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y64" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z64" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AA64" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AB64" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
       <c r="AC64" t="s">
-        <v>599</v>
+        <v>171</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>627</v>
       </c>
       <c r="AG64" t="s">
-        <v>660</v>
-      </c>
-      <c r="AT64">
-        <v>2013</v>
+        <v>113</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>834</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.2">
@@ -8341,79 +8422,91 @@
         <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="G65" t="s">
+        <v>323</v>
       </c>
       <c r="H65">
-        <v>203</v>
+        <v>401</v>
       </c>
       <c r="I65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J65" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K65" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L65">
-        <v>4728</v>
+        <v>5938</v>
       </c>
       <c r="M65">
-        <v>26089200</v>
+        <v>25540013</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>4728</v>
+        <v>5938</v>
+      </c>
+      <c r="P65">
+        <v>203</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>25332</v>
+      </c>
+      <c r="R65" t="s">
+        <v>416</v>
+      </c>
+      <c r="S65" t="s">
+        <v>172</v>
       </c>
       <c r="T65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V65" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="W65" t="s">
         <v>172</v>
       </c>
       <c r="X65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z65" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA65" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AB65" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="AC65" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="AG65" t="s">
         <v>114</v>
       </c>
+      <c r="AR65">
+        <v>2019</v>
+      </c>
       <c r="AX65" t="s">
-        <v>830</v>
-      </c>
-      <c r="AY65" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.2">
@@ -8424,91 +8517,61 @@
         <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E66" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F66" t="s">
         <v>286</v>
       </c>
       <c r="G66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H66">
-        <v>401</v>
-      </c>
-      <c r="I66" t="s">
-        <v>379</v>
+        <v>860</v>
+      </c>
+      <c r="I66">
+        <v>6117</v>
       </c>
       <c r="J66" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K66" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L66">
-        <v>5938</v>
+        <v>6178</v>
       </c>
       <c r="M66">
-        <v>25540013</v>
+        <v>25539914</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
       <c r="O66">
-        <v>5938</v>
-      </c>
-      <c r="P66">
-        <v>203</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>25332</v>
+        <v>6178</v>
       </c>
       <c r="R66" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S66" t="s">
-        <v>173</v>
-      </c>
-      <c r="T66" t="s">
-        <v>446</v>
-      </c>
-      <c r="U66" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="V66" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="W66" t="s">
         <v>173</v>
       </c>
-      <c r="X66" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>446</v>
-      </c>
       <c r="Z66" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA66" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>554</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>600</v>
+        <v>504</v>
       </c>
       <c r="AG66" t="s">
         <v>115</v>
-      </c>
-      <c r="AR66">
-        <v>2019</v>
-      </c>
-      <c r="AX66" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="67" spans="1:51" x14ac:dyDescent="0.2">
@@ -8519,61 +8582,73 @@
         <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F67" t="s">
         <v>288</v>
       </c>
-      <c r="G67" t="s">
-        <v>326</v>
-      </c>
       <c r="H67">
-        <v>860</v>
-      </c>
-      <c r="I67">
-        <v>6117</v>
+        <v>800</v>
+      </c>
+      <c r="I67" t="s">
+        <v>377</v>
       </c>
       <c r="J67" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K67" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L67">
-        <v>6178</v>
+        <v>6607</v>
       </c>
       <c r="M67">
-        <v>25539914</v>
+        <v>26089258</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
       <c r="O67">
-        <v>6178</v>
-      </c>
-      <c r="R67" t="s">
-        <v>420</v>
-      </c>
-      <c r="S67" t="s">
-        <v>445</v>
+        <v>6607</v>
+      </c>
+      <c r="T67" t="s">
+        <v>443</v>
+      </c>
+      <c r="U67" t="s">
+        <v>443</v>
       </c>
       <c r="V67" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="W67" t="s">
         <v>174</v>
       </c>
+      <c r="X67" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>443</v>
+      </c>
       <c r="Z67" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA67" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>596</v>
       </c>
       <c r="AG67" t="s">
         <v>116</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.2">
@@ -8584,73 +8659,124 @@
         <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="G68" t="s">
+        <v>325</v>
       </c>
       <c r="H68">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="I68" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J68" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K68" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L68">
-        <v>6607</v>
+        <v>7911</v>
       </c>
       <c r="M68">
-        <v>26089258</v>
+        <v>25540115</v>
       </c>
       <c r="N68">
         <v>1</v>
       </c>
       <c r="O68">
-        <v>6607</v>
+        <v>7911</v>
+      </c>
+      <c r="P68">
+        <v>424</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>32258</v>
+      </c>
+      <c r="R68" t="s">
+        <v>418</v>
+      </c>
+      <c r="S68" t="s">
+        <v>175</v>
       </c>
       <c r="T68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V68" t="s">
-        <v>488</v>
+        <v>418</v>
       </c>
       <c r="W68" t="s">
         <v>175</v>
       </c>
       <c r="X68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z68" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA68" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB68" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AC68" t="s">
-        <v>601</v>
+        <v>597</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>647</v>
       </c>
       <c r="AG68" t="s">
         <v>117</v>
       </c>
+      <c r="AJ68" t="s">
+        <v>695</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>711</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>725</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>738</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>754</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>770</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>780</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>790</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>801</v>
+      </c>
+      <c r="AS68">
+        <v>2013</v>
+      </c>
       <c r="AX68" t="s">
-        <v>831</v>
+        <v>836</v>
+      </c>
+      <c r="AY68">
+        <v>2016</v>
       </c>
     </row>
     <row r="69" spans="1:51" x14ac:dyDescent="0.2">
@@ -8661,124 +8787,85 @@
         <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F69" t="s">
-        <v>285</v>
-      </c>
-      <c r="G69" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="H69">
-        <v>781</v>
+        <v>860</v>
       </c>
       <c r="I69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L69">
-        <v>7911</v>
+        <v>7920</v>
       </c>
       <c r="M69">
-        <v>25540115</v>
+        <v>26089292</v>
       </c>
       <c r="N69">
         <v>1</v>
       </c>
       <c r="O69">
-        <v>7911</v>
-      </c>
-      <c r="P69">
-        <v>424</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>32258</v>
-      </c>
-      <c r="R69" t="s">
-        <v>421</v>
-      </c>
-      <c r="S69" t="s">
-        <v>176</v>
+        <v>7920</v>
       </c>
       <c r="T69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V69" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="W69" t="s">
         <v>176</v>
       </c>
       <c r="X69" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="Y69" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="Z69" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA69" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB69" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AC69" t="s">
-        <v>602</v>
+        <v>598</v>
+      </c>
+      <c r="AD69">
+        <v>8606852046</v>
       </c>
       <c r="AE69" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AG69" t="s">
         <v>118</v>
       </c>
       <c r="AJ69" t="s">
-        <v>681</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>698</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>712</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>726</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>742</v>
-      </c>
-      <c r="AO69" t="s">
-        <v>758</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>768</v>
-      </c>
-      <c r="AQ69" t="s">
-        <v>779</v>
-      </c>
-      <c r="AR69" t="s">
-        <v>790</v>
+        <v>696</v>
       </c>
       <c r="AS69">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="AX69" t="s">
-        <v>832</v>
-      </c>
-      <c r="AY69">
-        <v>2016</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.2">
@@ -8789,288 +8876,199 @@
         <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F70" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H70">
-        <v>860</v>
+        <v>877</v>
       </c>
       <c r="I70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L70">
-        <v>7920</v>
+        <v>8028</v>
       </c>
       <c r="M70">
-        <v>26089292</v>
+        <v>26089294</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
       <c r="O70">
-        <v>7920</v>
+        <v>8028</v>
       </c>
       <c r="T70" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="U70" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V70" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="W70" t="s">
         <v>177</v>
       </c>
       <c r="X70" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="Y70" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="Z70" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA70" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AB70" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AC70" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD70">
-        <v>8606852046</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>653</v>
+        <v>599</v>
       </c>
       <c r="AG70" t="s">
         <v>119</v>
       </c>
-      <c r="AJ70" t="s">
-        <v>682</v>
-      </c>
-      <c r="AS70">
-        <v>2016</v>
-      </c>
       <c r="AX70" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>120</v>
       </c>
-      <c r="B71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71" t="s">
-        <v>236</v>
-      </c>
-      <c r="E71" t="s">
-        <v>283</v>
-      </c>
-      <c r="F71" t="s">
-        <v>288</v>
-      </c>
       <c r="H71">
-        <v>877</v>
-      </c>
-      <c r="I71" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="J71" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K71" t="s">
-        <v>385</v>
-      </c>
-      <c r="L71">
-        <v>8028</v>
+        <v>382</v>
       </c>
       <c r="M71">
-        <v>26089294</v>
+        <v>36581819</v>
       </c>
       <c r="N71">
         <v>1</v>
       </c>
       <c r="O71">
-        <v>8028</v>
-      </c>
-      <c r="T71" t="s">
-        <v>446</v>
-      </c>
-      <c r="U71" t="s">
-        <v>446</v>
-      </c>
-      <c r="V71" t="s">
-        <v>490</v>
-      </c>
-      <c r="W71" t="s">
-        <v>178</v>
-      </c>
-      <c r="X71" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>446</v>
+        <v>8085</v>
       </c>
       <c r="Z71" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>558</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>604</v>
+        <v>504</v>
       </c>
       <c r="AG71" t="s">
         <v>120</v>
-      </c>
-      <c r="AX71" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="72" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>121</v>
       </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" t="s">
+        <v>326</v>
+      </c>
       <c r="H72">
         <v>413</v>
       </c>
+      <c r="I72" t="s">
+        <v>381</v>
+      </c>
       <c r="J72" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K72" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="L72">
+        <v>8253</v>
       </c>
       <c r="M72">
-        <v>36581819</v>
+        <v>29345753</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>8085</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>507</v>
+        <v>8253</v>
+      </c>
+      <c r="V72" t="s">
+        <v>488</v>
+      </c>
+      <c r="W72" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>628</v>
       </c>
       <c r="AG72" t="s">
         <v>121</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>122</v>
       </c>
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" t="s">
-        <v>237</v>
-      </c>
-      <c r="E73" t="s">
-        <v>284</v>
-      </c>
-      <c r="F73" t="s">
-        <v>285</v>
-      </c>
-      <c r="G73" t="s">
-        <v>328</v>
-      </c>
       <c r="H73">
-        <v>413</v>
-      </c>
-      <c r="I73" t="s">
-        <v>384</v>
+        <v>508</v>
       </c>
       <c r="J73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K73" t="s">
-        <v>385</v>
-      </c>
-      <c r="L73">
-        <v>8253</v>
+        <v>382</v>
       </c>
       <c r="M73">
-        <v>29345753</v>
+        <v>36581834</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>8253</v>
-      </c>
-      <c r="V73" t="s">
-        <v>491</v>
-      </c>
-      <c r="W73" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>491</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>633</v>
+        <v>8415</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>503</v>
       </c>
       <c r="AG73" t="s">
         <v>122</v>
       </c>
-      <c r="AX73" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>123</v>
-      </c>
-      <c r="H74">
-        <v>508</v>
-      </c>
-      <c r="J74" t="s">
-        <v>385</v>
-      </c>
-      <c r="K74" t="s">
-        <v>385</v>
-      </c>
-      <c r="M74">
-        <v>36581834</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>8415</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>506</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY74" t="s">
-        <v>854</v>
+      <c r="AY73" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>

--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADAE1A6-A8A8-7F41-A156-489CAFA39F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6DE961-F50B-E940-97A4-36A4D1313AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="883">
   <si>
     <t>Member/Non-Member - Organization</t>
   </si>
@@ -2470,6 +2470,78 @@
   </si>
   <si>
     <t>2011-2017</t>
+  </si>
+  <si>
+    <t>05/03/2024</t>
+  </si>
+  <si>
+    <t>05/10/2024</t>
+  </si>
+  <si>
+    <t>05/28/2024</t>
+  </si>
+  <si>
+    <t>04/29/2024</t>
+  </si>
+  <si>
+    <t>04/30/2024</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>05/01/2010</t>
+  </si>
+  <si>
+    <t>04/15/2024</t>
+  </si>
+  <si>
+    <t>05/03/2023</t>
+  </si>
+  <si>
+    <t>07/16/2023</t>
+  </si>
+  <si>
+    <t>04/01/1987</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>04/19/2024</t>
+  </si>
+  <si>
+    <t>05/03/2022</t>
+  </si>
+  <si>
+    <t>02/01/1974</t>
+  </si>
+  <si>
+    <t>05/01/1994</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>05/01/1998</t>
+  </si>
+  <si>
+    <t>04/01/2007</t>
+  </si>
+  <si>
+    <t>05/01/1986</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>04/01/1988</t>
   </si>
   <si>
     <t>Fall 2020</t>
@@ -2984,20 +3056,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="25" max="25" width="7" customWidth="1"/>
-    <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="30" max="32" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="60.6640625" customWidth="1"/>
-    <col min="34" max="34" width="47.6640625" customWidth="1"/>
-    <col min="35" max="35" width="67.33203125" customWidth="1"/>
+    <col min="48" max="48" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
@@ -3273,8 +3338,11 @@
       <c r="AS2">
         <v>2019</v>
       </c>
+      <c r="AV2" t="s">
+        <v>812</v>
+      </c>
       <c r="AX2" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
@@ -3374,14 +3442,17 @@
       <c r="AT3" t="s">
         <v>805</v>
       </c>
+      <c r="AV3" t="s">
+        <v>813</v>
+      </c>
       <c r="AW3" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="AX3" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="AY3" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
@@ -3467,7 +3538,7 @@
         <v>698</v>
       </c>
       <c r="AX4" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY4">
         <v>2023</v>
@@ -3558,8 +3629,11 @@
       <c r="AR5">
         <v>2019</v>
       </c>
+      <c r="AV5" t="s">
+        <v>813</v>
+      </c>
       <c r="AX5" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY5">
         <v>2023</v>
@@ -3654,7 +3728,7 @@
         <v>2012</v>
       </c>
       <c r="AX6" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY6">
         <v>2023</v>
@@ -3784,8 +3858,11 @@
       <c r="AS7">
         <v>2021</v>
       </c>
+      <c r="AV7" t="s">
+        <v>814</v>
+      </c>
       <c r="AX7" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="AY7">
         <v>2023</v>
@@ -3912,6 +3989,9 @@
       <c r="AS8" t="s">
         <v>802</v>
       </c>
+      <c r="AV8" t="s">
+        <v>815</v>
+      </c>
       <c r="AY8">
         <v>2023</v>
       </c>
@@ -4007,14 +4087,17 @@
       <c r="AU9" t="s">
         <v>809</v>
       </c>
+      <c r="AV9" t="s">
+        <v>816</v>
+      </c>
       <c r="AW9" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="AX9" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="AY9" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
@@ -4123,6 +4206,9 @@
       <c r="AU10" t="s">
         <v>810</v>
       </c>
+      <c r="AV10" t="s">
+        <v>817</v>
+      </c>
       <c r="AY10">
         <v>2022</v>
       </c>
@@ -4216,10 +4302,10 @@
         <v>2022</v>
       </c>
       <c r="AX11" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="AY11" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
@@ -4328,11 +4414,14 @@
       <c r="AU12" t="s">
         <v>811</v>
       </c>
+      <c r="AV12" t="s">
+        <v>818</v>
+      </c>
       <c r="AX12" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="AY12" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
@@ -4432,11 +4521,14 @@
       <c r="AR13">
         <v>2012</v>
       </c>
+      <c r="AV13" t="s">
+        <v>819</v>
+      </c>
       <c r="AX13" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY13" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
@@ -4557,11 +4649,14 @@
       <c r="AS14" t="s">
         <v>803</v>
       </c>
+      <c r="AV14" t="s">
+        <v>820</v>
+      </c>
       <c r="AX14" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="AY14" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
@@ -4694,14 +4789,17 @@
       <c r="AT15">
         <v>2017</v>
       </c>
+      <c r="AV15" t="s">
+        <v>815</v>
+      </c>
       <c r="AW15" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
       <c r="AX15" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY15" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
@@ -4796,7 +4894,7 @@
         <v>807</v>
       </c>
       <c r="AY16" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.2">
@@ -5012,8 +5110,11 @@
       <c r="AR18">
         <v>2012</v>
       </c>
+      <c r="AV18" t="s">
+        <v>821</v>
+      </c>
       <c r="AX18" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="AY18">
         <v>2023</v>
@@ -5134,11 +5235,14 @@
       <c r="AQ19" t="s">
         <v>786</v>
       </c>
+      <c r="AV19" t="s">
+        <v>812</v>
+      </c>
       <c r="AX19" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="AY19" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
@@ -5257,10 +5361,10 @@
         <v>2014</v>
       </c>
       <c r="AX20" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY20" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
@@ -5366,14 +5470,17 @@
       <c r="AR21" t="s">
         <v>796</v>
       </c>
+      <c r="AV21" t="s">
+        <v>812</v>
+      </c>
       <c r="AW21" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="AX21" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="AY21" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
@@ -5553,8 +5660,11 @@
       <c r="AR23" t="s">
         <v>797</v>
       </c>
+      <c r="AV23" t="s">
+        <v>822</v>
+      </c>
       <c r="AX23" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.2">
@@ -5649,7 +5759,7 @@
         <v>2019</v>
       </c>
       <c r="AY24" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.2">
@@ -5761,8 +5871,11 @@
       <c r="AS25">
         <v>2012</v>
       </c>
+      <c r="AV25" t="s">
+        <v>823</v>
+      </c>
       <c r="AY25" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.2">
@@ -5859,8 +5972,11 @@
       <c r="AK26" t="s">
         <v>709</v>
       </c>
+      <c r="AV26" t="s">
+        <v>812</v>
+      </c>
       <c r="AX26" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.2">
@@ -5966,11 +6082,14 @@
       <c r="AR27" t="s">
         <v>797</v>
       </c>
+      <c r="AV27" t="s">
+        <v>824</v>
+      </c>
       <c r="AX27" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY27" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.2">
@@ -6056,7 +6175,7 @@
         <v>673</v>
       </c>
       <c r="AY28" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.2">
@@ -6150,8 +6269,11 @@
       <c r="AQ29" t="s">
         <v>789</v>
       </c>
+      <c r="AV29" t="s">
+        <v>825</v>
+      </c>
       <c r="AX29" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
@@ -6183,7 +6305,7 @@
         <v>79</v>
       </c>
       <c r="AX30" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
@@ -6215,7 +6337,7 @@
         <v>80</v>
       </c>
       <c r="AX31" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
@@ -6283,7 +6405,7 @@
         <v>81</v>
       </c>
       <c r="AX32" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.2">
@@ -6343,8 +6465,11 @@
       <c r="AG34" t="s">
         <v>83</v>
       </c>
+      <c r="AV34" t="s">
+        <v>826</v>
+      </c>
       <c r="AX34" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY34" t="s">
         <v>808</v>
@@ -6421,10 +6546,10 @@
         <v>804</v>
       </c>
       <c r="AW35" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="AX35" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY35" t="s">
         <v>806</v>
@@ -6504,7 +6629,7 @@
         <v>85</v>
       </c>
       <c r="AX36" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.2">
@@ -6631,7 +6756,7 @@
         <v>798</v>
       </c>
       <c r="AX38" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.2">
@@ -6728,6 +6853,9 @@
       <c r="AR39" t="s">
         <v>799</v>
       </c>
+      <c r="AV39" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -6805,11 +6933,14 @@
       <c r="AG40" t="s">
         <v>89</v>
       </c>
+      <c r="AV40" t="s">
+        <v>817</v>
+      </c>
       <c r="AX40" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="AY40" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.2">
@@ -6906,6 +7037,9 @@
       <c r="AJ41" t="s">
         <v>692</v>
       </c>
+      <c r="AV41" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -6998,8 +7132,11 @@
       <c r="AG42" t="s">
         <v>91</v>
       </c>
+      <c r="AV42" t="s">
+        <v>829</v>
+      </c>
       <c r="AX42" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.2">
@@ -7169,7 +7306,7 @@
         <v>95</v>
       </c>
       <c r="AY46" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.2">
@@ -7266,11 +7403,14 @@
       <c r="AJ47" t="s">
         <v>693</v>
       </c>
+      <c r="AV47" t="s">
+        <v>830</v>
+      </c>
       <c r="AX47" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="AY47" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.2">
@@ -7355,11 +7495,14 @@
       <c r="AG48" t="s">
         <v>97</v>
       </c>
+      <c r="AV48" t="s">
+        <v>831</v>
+      </c>
       <c r="AX48" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="AY48" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.2">
@@ -7459,10 +7602,10 @@
         <v>99</v>
       </c>
       <c r="AX50" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="AY50" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.2">
@@ -7612,8 +7755,11 @@
       <c r="AT52" t="s">
         <v>808</v>
       </c>
+      <c r="AV52" t="s">
+        <v>832</v>
+      </c>
       <c r="AX52" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.2">
@@ -7678,7 +7824,7 @@
         <v>694</v>
       </c>
       <c r="AX53" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.2">
@@ -7787,7 +7933,7 @@
         <v>104</v>
       </c>
       <c r="AY55" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.2">
@@ -7819,7 +7965,7 @@
         <v>105</v>
       </c>
       <c r="AY56" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.2">
@@ -7905,7 +8051,7 @@
         <v>800</v>
       </c>
       <c r="AX57" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.2">
@@ -8062,10 +8208,10 @@
         <v>108</v>
       </c>
       <c r="AX59" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="AY59" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.2">
@@ -8120,8 +8266,11 @@
       <c r="AG60" t="s">
         <v>109</v>
       </c>
+      <c r="AV60" t="s">
+        <v>833</v>
+      </c>
       <c r="AX60" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.2">
@@ -8198,10 +8347,10 @@
         <v>110</v>
       </c>
       <c r="AX61" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="AY61" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.2">
@@ -8408,10 +8557,10 @@
         <v>113</v>
       </c>
       <c r="AX64" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="AY64" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.2">
@@ -8505,8 +8654,11 @@
       <c r="AR65">
         <v>2019</v>
       </c>
+      <c r="AV65" t="s">
+        <v>834</v>
+      </c>
       <c r="AX65" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.2">
@@ -8648,7 +8800,7 @@
         <v>116</v>
       </c>
       <c r="AX67" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.2">
@@ -8772,8 +8924,11 @@
       <c r="AS68">
         <v>2013</v>
       </c>
+      <c r="AV68" t="s">
+        <v>835</v>
+      </c>
       <c r="AX68" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="AY68">
         <v>2016</v>
@@ -8865,7 +9020,7 @@
         <v>2016</v>
       </c>
       <c r="AX69" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.2">
@@ -8942,7 +9097,7 @@
         <v>119</v>
       </c>
       <c r="AX70" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.2">
@@ -9036,7 +9191,7 @@
         <v>121</v>
       </c>
       <c r="AX72" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.2">
@@ -9068,7 +9223,7 @@
         <v>122</v>
       </c>
       <c r="AY73" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6DE961-F50B-E940-97A4-36A4D1313AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F502844F-6680-1146-84EF-5F0C2CD76C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="868">
   <si>
     <t>Member/Non-Member - Organization</t>
   </si>
@@ -2472,76 +2472,31 @@
     <t>2011-2017</t>
   </si>
   <si>
+    <t>05/10/2024</t>
+  </si>
+  <si>
+    <t>05/28/2024</t>
+  </si>
+  <si>
+    <t>04/29/2024</t>
+  </si>
+  <si>
+    <t>04/30/2024</t>
+  </si>
+  <si>
+    <t>05/03/2023</t>
+  </si>
+  <si>
+    <t>03/29/2024</t>
+  </si>
+  <si>
     <t>05/03/2024</t>
   </si>
   <si>
-    <t>05/10/2024</t>
-  </si>
-  <si>
-    <t>05/28/2024</t>
-  </si>
-  <si>
-    <t>04/29/2024</t>
-  </si>
-  <si>
-    <t>04/30/2024</t>
-  </si>
-  <si>
-    <t>05/01/2023</t>
-  </si>
-  <si>
-    <t>05/01/2010</t>
-  </si>
-  <si>
-    <t>04/15/2024</t>
-  </si>
-  <si>
-    <t>05/03/2023</t>
-  </si>
-  <si>
-    <t>07/16/2023</t>
-  </si>
-  <si>
-    <t>04/01/1987</t>
-  </si>
-  <si>
-    <t>04/20/2018</t>
-  </si>
-  <si>
     <t>04/19/2024</t>
   </si>
   <si>
-    <t>05/03/2022</t>
-  </si>
-  <si>
-    <t>02/01/1974</t>
-  </si>
-  <si>
-    <t>05/01/1994</t>
-  </si>
-  <si>
-    <t>05/07/2024</t>
-  </si>
-  <si>
-    <t>05/09/2024</t>
-  </si>
-  <si>
-    <t>05/09/2017</t>
-  </si>
-  <si>
-    <t>05/01/1998</t>
-  </si>
-  <si>
-    <t>04/01/2007</t>
-  </si>
-  <si>
-    <t>05/01/1986</t>
-  </si>
-  <si>
-    <t>05/01/2012</t>
-  </si>
-  <si>
-    <t>04/01/1988</t>
+    <t>04/01/1998</t>
   </si>
   <si>
     <t>Fall 2020</t>
@@ -3056,13 +3011,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AV12" sqref="AV12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="48" max="48" width="44.83203125" customWidth="1"/>
+    <col min="17" max="17" width="52.33203125" customWidth="1"/>
+    <col min="33" max="33" width="33.83203125" customWidth="1"/>
+    <col min="34" max="34" width="14.5" customWidth="1"/>
+    <col min="35" max="35" width="18.83203125" customWidth="1"/>
+    <col min="48" max="48" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
@@ -3338,11 +3297,8 @@
       <c r="AS2">
         <v>2019</v>
       </c>
-      <c r="AV2" t="s">
-        <v>812</v>
-      </c>
       <c r="AX2" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
@@ -3442,17 +3398,14 @@
       <c r="AT3" t="s">
         <v>805</v>
       </c>
-      <c r="AV3" t="s">
-        <v>813</v>
-      </c>
       <c r="AW3" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="AX3" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="AY3" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
@@ -3538,7 +3491,7 @@
         <v>698</v>
       </c>
       <c r="AX4" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY4">
         <v>2023</v>
@@ -3630,10 +3583,10 @@
         <v>2019</v>
       </c>
       <c r="AV5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AX5" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY5">
         <v>2023</v>
@@ -3728,7 +3681,7 @@
         <v>2012</v>
       </c>
       <c r="AX6" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY6">
         <v>2023</v>
@@ -3859,10 +3812,10 @@
         <v>2021</v>
       </c>
       <c r="AV7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AX7" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="AY7">
         <v>2023</v>
@@ -3990,7 +3943,7 @@
         <v>802</v>
       </c>
       <c r="AV8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AY8">
         <v>2023</v>
@@ -4088,16 +4041,16 @@
         <v>809</v>
       </c>
       <c r="AV9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AW9" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="AX9" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="AY9" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
@@ -4206,9 +4159,6 @@
       <c r="AU10" t="s">
         <v>810</v>
       </c>
-      <c r="AV10" t="s">
-        <v>817</v>
-      </c>
       <c r="AY10">
         <v>2022</v>
       </c>
@@ -4302,10 +4252,10 @@
         <v>2022</v>
       </c>
       <c r="AX11" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="AY11" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
@@ -4414,14 +4364,11 @@
       <c r="AU12" t="s">
         <v>811</v>
       </c>
-      <c r="AV12" t="s">
-        <v>818</v>
-      </c>
       <c r="AX12" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="AY12" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
@@ -4521,14 +4468,11 @@
       <c r="AR13">
         <v>2012</v>
       </c>
-      <c r="AV13" t="s">
-        <v>819</v>
-      </c>
       <c r="AX13" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY13" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
@@ -4650,13 +4594,13 @@
         <v>803</v>
       </c>
       <c r="AV14" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AX14" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AY14" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
@@ -4790,16 +4734,16 @@
         <v>2017</v>
       </c>
       <c r="AV15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AW15" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="AX15" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY15" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
@@ -4894,7 +4838,7 @@
         <v>807</v>
       </c>
       <c r="AY16" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.2">
@@ -5110,11 +5054,8 @@
       <c r="AR18">
         <v>2012</v>
       </c>
-      <c r="AV18" t="s">
-        <v>821</v>
-      </c>
       <c r="AX18" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="AY18">
         <v>2023</v>
@@ -5235,14 +5176,11 @@
       <c r="AQ19" t="s">
         <v>786</v>
       </c>
-      <c r="AV19" t="s">
-        <v>812</v>
-      </c>
       <c r="AX19" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="AY19" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
@@ -5360,11 +5298,14 @@
       <c r="AT20">
         <v>2014</v>
       </c>
+      <c r="AV20" t="s">
+        <v>817</v>
+      </c>
       <c r="AX20" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY20" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
@@ -5471,16 +5412,16 @@
         <v>796</v>
       </c>
       <c r="AV21" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="AW21" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="AX21" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="AY21" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
@@ -5660,11 +5601,8 @@
       <c r="AR23" t="s">
         <v>797</v>
       </c>
-      <c r="AV23" t="s">
-        <v>822</v>
-      </c>
       <c r="AX23" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.2">
@@ -5759,7 +5697,7 @@
         <v>2019</v>
       </c>
       <c r="AY24" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.2">
@@ -5871,11 +5809,8 @@
       <c r="AS25">
         <v>2012</v>
       </c>
-      <c r="AV25" t="s">
-        <v>823</v>
-      </c>
       <c r="AY25" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.2">
@@ -5972,11 +5907,8 @@
       <c r="AK26" t="s">
         <v>709</v>
       </c>
-      <c r="AV26" t="s">
-        <v>812</v>
-      </c>
       <c r="AX26" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.2">
@@ -6083,13 +6015,13 @@
         <v>797</v>
       </c>
       <c r="AV27" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="AX27" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY27" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.2">
@@ -6175,7 +6107,7 @@
         <v>673</v>
       </c>
       <c r="AY28" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.2">
@@ -6269,11 +6201,8 @@
       <c r="AQ29" t="s">
         <v>789</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AX29" t="s">
         <v>825</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
@@ -6305,7 +6234,7 @@
         <v>79</v>
       </c>
       <c r="AX30" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
@@ -6337,7 +6266,7 @@
         <v>80</v>
       </c>
       <c r="AX31" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
@@ -6405,7 +6334,7 @@
         <v>81</v>
       </c>
       <c r="AX32" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.2">
@@ -6465,11 +6394,8 @@
       <c r="AG34" t="s">
         <v>83</v>
       </c>
-      <c r="AV34" t="s">
-        <v>826</v>
-      </c>
       <c r="AX34" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY34" t="s">
         <v>808</v>
@@ -6546,10 +6472,10 @@
         <v>804</v>
       </c>
       <c r="AW35" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="AX35" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY35" t="s">
         <v>806</v>
@@ -6629,7 +6555,7 @@
         <v>85</v>
       </c>
       <c r="AX36" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.2">
@@ -6756,7 +6682,7 @@
         <v>798</v>
       </c>
       <c r="AX38" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.2">
@@ -6853,9 +6779,6 @@
       <c r="AR39" t="s">
         <v>799</v>
       </c>
-      <c r="AV39" t="s">
-        <v>827</v>
-      </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -6933,14 +6856,11 @@
       <c r="AG40" t="s">
         <v>89</v>
       </c>
-      <c r="AV40" t="s">
-        <v>817</v>
-      </c>
       <c r="AX40" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="AY40" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.2">
@@ -7037,9 +6957,6 @@
       <c r="AJ41" t="s">
         <v>692</v>
       </c>
-      <c r="AV41" t="s">
-        <v>828</v>
-      </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -7132,11 +7049,8 @@
       <c r="AG42" t="s">
         <v>91</v>
       </c>
-      <c r="AV42" t="s">
-        <v>829</v>
-      </c>
       <c r="AX42" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.2">
@@ -7306,7 +7220,7 @@
         <v>95</v>
       </c>
       <c r="AY46" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.2">
@@ -7403,14 +7317,11 @@
       <c r="AJ47" t="s">
         <v>693</v>
       </c>
-      <c r="AV47" t="s">
-        <v>830</v>
-      </c>
       <c r="AX47" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="AY47" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.2">
@@ -7495,14 +7406,11 @@
       <c r="AG48" t="s">
         <v>97</v>
       </c>
-      <c r="AV48" t="s">
-        <v>831</v>
-      </c>
       <c r="AX48" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="AY48" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.2">
@@ -7602,10 +7510,10 @@
         <v>99</v>
       </c>
       <c r="AX50" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="AY50" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.2">
@@ -7755,11 +7663,8 @@
       <c r="AT52" t="s">
         <v>808</v>
       </c>
-      <c r="AV52" t="s">
-        <v>832</v>
-      </c>
       <c r="AX52" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.2">
@@ -7824,7 +7729,7 @@
         <v>694</v>
       </c>
       <c r="AX53" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.2">
@@ -7933,7 +7838,7 @@
         <v>104</v>
       </c>
       <c r="AY55" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.2">
@@ -7965,7 +7870,7 @@
         <v>105</v>
       </c>
       <c r="AY56" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.2">
@@ -8051,7 +7956,7 @@
         <v>800</v>
       </c>
       <c r="AX57" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.2">
@@ -8208,10 +8113,10 @@
         <v>108</v>
       </c>
       <c r="AX59" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="AY59" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.2">
@@ -8266,11 +8171,8 @@
       <c r="AG60" t="s">
         <v>109</v>
       </c>
-      <c r="AV60" t="s">
-        <v>833</v>
-      </c>
       <c r="AX60" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.2">
@@ -8347,10 +8249,10 @@
         <v>110</v>
       </c>
       <c r="AX61" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="AY61" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.2">
@@ -8479,6 +8381,9 @@
       <c r="AT63">
         <v>2013</v>
       </c>
+      <c r="AV63" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -8557,10 +8462,10 @@
         <v>113</v>
       </c>
       <c r="AX64" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="AY64" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.2">
@@ -8654,11 +8559,8 @@
       <c r="AR65">
         <v>2019</v>
       </c>
-      <c r="AV65" t="s">
-        <v>834</v>
-      </c>
       <c r="AX65" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.2">
@@ -8800,7 +8702,7 @@
         <v>116</v>
       </c>
       <c r="AX67" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.2">
@@ -8924,11 +8826,8 @@
       <c r="AS68">
         <v>2013</v>
       </c>
-      <c r="AV68" t="s">
-        <v>835</v>
-      </c>
       <c r="AX68" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="AY68">
         <v>2016</v>
@@ -9020,7 +8919,7 @@
         <v>2016</v>
       </c>
       <c r="AX69" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.2">
@@ -9097,7 +8996,7 @@
         <v>119</v>
       </c>
       <c r="AX70" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.2">
@@ -9191,7 +9090,7 @@
         <v>121</v>
       </c>
       <c r="AX72" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.2">
@@ -9223,7 +9122,7 @@
         <v>122</v>
       </c>
       <c r="AY73" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A99CD2-E830-5643-B6DE-6DA550E64DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="822">
   <si>
     <t>Member/Non-Member - Organization</t>
   </si>
@@ -2421,16 +2427,22 @@
     <t>2016; 2023</t>
   </si>
   <si>
+    <t>2023; 2024</t>
+  </si>
+  <si>
+    <t>2022; 2023; 2024</t>
+  </si>
+  <si>
+    <t>2016; 2017; 2018; 2019; 2021; 2022; 2023; 2024</t>
+  </si>
+  <si>
     <t>2022; 2023</t>
   </si>
   <si>
-    <t>2016; 2017; 2018; 2019; 2021; 2022; 2023</t>
-  </si>
-  <si>
-    <t>2015; 2016; 2017; 2018; 2019; 2021; 2023</t>
-  </si>
-  <si>
-    <t>2015; 2016; 2017; 2018; 2019; 2021; 2022; 2023</t>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2023; 2024</t>
+  </si>
+  <si>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2022; 2023; 2024</t>
   </si>
   <si>
     <t>2021; 2023</t>
@@ -2439,10 +2451,10 @@
     <t>2017; 2018; 2019; 2021; 2022; 2023</t>
   </si>
   <si>
-    <t>2021; 2022; 2023</t>
-  </si>
-  <si>
-    <t>2018; 2019; 2022; 2023</t>
+    <t>2021; 2022; 2023; 2024</t>
+  </si>
+  <si>
+    <t>2018; 2019; 2022; 2023; 2024</t>
   </si>
   <si>
     <t>2015; 2016; 2017; 2018; 2021</t>
@@ -2451,16 +2463,22 @@
     <t>2019; 2021</t>
   </si>
   <si>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2024</t>
+  </si>
+  <si>
+    <t>2016; 2017; 2018; 2019; 2021; 2024</t>
+  </si>
+  <si>
     <t>2015; 2016; 2017; 2018; 2019; 2021</t>
   </si>
   <si>
-    <t>2016; 2017; 2018; 2019; 2021</t>
-  </si>
-  <si>
     <t>2015; 2017</t>
   </si>
   <si>
     <t>2015; 2016; 2018; 2019; 2021</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
   <si>
     <t>2017; 2018; 2019; 2021</t>
@@ -2484,11 +2502,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2552,13 +2570,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2596,7 +2622,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2630,6 +2656,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2664,9 +2691,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2839,14 +2867,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="34.1640625" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="22" max="22" width="39" customWidth="1"/>
+    <col min="23" max="23" width="68.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3117,7 +3153,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3218,7 +3254,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3301,7 +3337,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -3389,11 +3425,11 @@
       <c r="AX5" t="s">
         <v>775</v>
       </c>
-      <c r="AY5">
-        <v>2023</v>
+      <c r="AY5" t="s">
+        <v>798</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -3482,7 +3518,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3603,11 +3639,11 @@
       <c r="AX7" t="s">
         <v>777</v>
       </c>
-      <c r="AY7">
-        <v>2023</v>
+      <c r="AY7" t="s">
+        <v>798</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -3722,11 +3758,11 @@
       <c r="AS8" t="s">
         <v>761</v>
       </c>
-      <c r="AY8">
-        <v>2023</v>
+      <c r="AY8" t="s">
+        <v>798</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3824,10 +3860,10 @@
         <v>778</v>
       </c>
       <c r="AY9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3931,7 +3967,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -4023,10 +4059,10 @@
         <v>779</v>
       </c>
       <c r="AY11" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -4130,10 +4166,10 @@
         <v>780</v>
       </c>
       <c r="AY12" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -4228,10 +4264,10 @@
         <v>775</v>
       </c>
       <c r="AY13" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4347,10 +4383,10 @@
         <v>781</v>
       </c>
       <c r="AY14" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4481,10 +4517,10 @@
         <v>775</v>
       </c>
       <c r="AY15" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4570,10 +4606,10 @@
         <v>766</v>
       </c>
       <c r="AY16" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -4686,7 +4722,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -4781,7 +4817,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -4894,10 +4930,10 @@
         <v>783</v>
       </c>
       <c r="AY19" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -5010,10 +5046,10 @@
         <v>775</v>
       </c>
       <c r="AY20" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -5117,10 +5153,10 @@
         <v>784</v>
       </c>
       <c r="AY21" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -5176,7 +5212,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -5289,7 +5325,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -5375,10 +5411,10 @@
         <v>2019</v>
       </c>
       <c r="AY24" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5482,10 +5518,10 @@
         <v>2012</v>
       </c>
       <c r="AY25" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -5577,7 +5613,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -5678,10 +5714,10 @@
         <v>775</v>
       </c>
       <c r="AY27" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -5758,10 +5794,10 @@
         <v>77</v>
       </c>
       <c r="AY28" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -5856,7 +5892,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -5888,7 +5924,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5920,7 +5956,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -5982,7 +6018,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -6008,7 +6044,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -6046,7 +6082,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -6120,7 +6156,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -6191,7 +6227,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -6220,7 +6256,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -6312,7 +6348,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -6401,7 +6437,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -6475,10 +6511,10 @@
         <v>775</v>
       </c>
       <c r="AY40" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -6567,7 +6603,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -6656,7 +6692,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -6727,7 +6763,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -6756,7 +6792,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -6788,7 +6824,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -6817,10 +6853,10 @@
         <v>95</v>
       </c>
       <c r="AY46" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -6912,10 +6948,10 @@
         <v>788</v>
       </c>
       <c r="AY47" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -6995,10 +7031,10 @@
         <v>789</v>
       </c>
       <c r="AY48" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -7047,8 +7083,11 @@
       <c r="AG49" t="s">
         <v>98</v>
       </c>
+      <c r="AY49" t="s">
+        <v>815</v>
+      </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -7098,10 +7137,10 @@
         <v>790</v>
       </c>
       <c r="AY50" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -7151,7 +7190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -7237,7 +7276,7 @@
         <v>101</v>
       </c>
       <c r="AR52" s="2">
-        <v>85.40416666666667</v>
+        <v>85.404166666666669</v>
       </c>
       <c r="AT52" t="s">
         <v>767</v>
@@ -7246,7 +7285,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -7305,7 +7344,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -7334,7 +7373,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -7405,10 +7444,10 @@
         <v>104</v>
       </c>
       <c r="AY55" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -7437,10 +7476,10 @@
         <v>105</v>
       </c>
       <c r="AY56" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -7520,7 +7559,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -7591,7 +7630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -7665,10 +7704,10 @@
         <v>791</v>
       </c>
       <c r="AY59" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -7724,7 +7763,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -7795,10 +7834,10 @@
         <v>792</v>
       </c>
       <c r="AY61" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -7827,7 +7866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -7918,8 +7957,11 @@
       <c r="AT63">
         <v>2013</v>
       </c>
+      <c r="AY63" t="s">
+        <v>815</v>
+      </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -7993,10 +8035,10 @@
         <v>793</v>
       </c>
       <c r="AY64" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -8085,7 +8127,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -8144,7 +8186,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -8215,7 +8257,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -8337,7 +8379,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -8420,7 +8462,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -8491,7 +8533,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -8520,7 +8562,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -8579,7 +8621,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -8608,7 +8650,7 @@
         <v>122</v>
       </c>
       <c r="AY73" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C459E-4E97-8D46-95E1-BEEC438AA601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F73B0A-F0F0-724A-9DD1-63A06ACA3DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="802">
   <si>
     <t>Member/Non-Member - Organization</t>
   </si>
@@ -1372,66 +1372,6 @@
     <t>s.kar@neu.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Angela Biselli and Robert Cordery </t>
-  </si>
-  <si>
-    <t>Dr. David Morin</t>
-  </si>
-  <si>
-    <t>Prof. Joe Checkelsky</t>
-  </si>
-  <si>
-    <t>Spencer Smith</t>
-  </si>
-  <si>
-    <t>Joyce Palmer Fortune</t>
-  </si>
-  <si>
-    <t>Timothy Atherton</t>
-  </si>
-  <si>
-    <t>Frank Dudish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor Rudra </t>
-  </si>
-  <si>
-    <t>Sarah Demers</t>
-  </si>
-  <si>
-    <t>Matthew Guthrie</t>
-  </si>
-  <si>
-    <t>Ben Heidenreich</t>
-  </si>
-  <si>
-    <t>David Kagan</t>
-  </si>
-  <si>
-    <t>checkelsky@mit.edu</t>
-  </si>
-  <si>
-    <t>smiths@mtholyoke.edu</t>
-  </si>
-  <si>
-    <t>timothy.atherton@tufts.edu</t>
-  </si>
-  <si>
-    <t>frank.dudish@maine.edu</t>
-  </si>
-  <si>
-    <t>rpk101@wpi.edu</t>
-  </si>
-  <si>
-    <t>sarah.demerskonezny@yale.edu</t>
-  </si>
-  <si>
-    <t>bheidenreich@umass.edu</t>
-  </si>
-  <si>
-    <t>dkagan@umassd.edu</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Charles Thomas Hess</t>
   </si>
   <si>
@@ -2427,16 +2367,22 @@
     <t>2016; 2023</t>
   </si>
   <si>
+    <t>2023; 2024</t>
+  </si>
+  <si>
+    <t>2022; 2023; 2024</t>
+  </si>
+  <si>
+    <t>2016; 2017; 2018; 2019; 2021; 2022; 2023; 2024</t>
+  </si>
+  <si>
     <t>2022; 2023</t>
   </si>
   <si>
-    <t>2016; 2017; 2018; 2019; 2021; 2022; 2023</t>
-  </si>
-  <si>
-    <t>2015; 2016; 2017; 2018; 2019; 2021; 2023</t>
-  </si>
-  <si>
-    <t>2015; 2016; 2017; 2018; 2019; 2021; 2022; 2023</t>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2023; 2024</t>
+  </si>
+  <si>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2022; 2023; 2024</t>
   </si>
   <si>
     <t>2021; 2023</t>
@@ -2445,10 +2391,10 @@
     <t>2017; 2018; 2019; 2021; 2022; 2023</t>
   </si>
   <si>
-    <t>2021; 2022; 2023</t>
-  </si>
-  <si>
-    <t>2018; 2019; 2022; 2023</t>
+    <t>2021; 2022; 2023; 2024</t>
+  </si>
+  <si>
+    <t>2018; 2019; 2022; 2023; 2024</t>
   </si>
   <si>
     <t>2015; 2016; 2017; 2018; 2021</t>
@@ -2457,12 +2403,15 @@
     <t>2019; 2021</t>
   </si>
   <si>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2024</t>
+  </si>
+  <si>
+    <t>2016; 2017; 2018; 2019; 2021; 2024</t>
+  </si>
+  <si>
     <t>2015; 2016; 2017; 2018; 2019; 2021</t>
   </si>
   <si>
-    <t>2016; 2017; 2018; 2019; 2021</t>
-  </si>
-  <si>
     <t>2015; 2017</t>
   </si>
   <si>
@@ -2479,6 +2428,9 @@
   </si>
   <si>
     <t>2015; 2016; 2017; 2018; 2019</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
   <si>
     <t>2016; 2017; 2018; 2019</t>
@@ -2858,15 +2810,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="36.5" customWidth="1"/>
-    <col min="22" max="22" width="31.1640625" customWidth="1"/>
-    <col min="23" max="23" width="40.83203125" customWidth="1"/>
+    <col min="17" max="17" width="39.33203125" customWidth="1"/>
+    <col min="50" max="50" width="18.5" customWidth="1"/>
+    <col min="51" max="51" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
@@ -3092,52 +3044,52 @@
         <v>443</v>
       </c>
       <c r="Z2" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA2" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB2" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="AC2" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="AD2" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="AE2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="AG2" t="s">
         <v>51</v>
       </c>
       <c r="AJ2" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="AK2" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="AN2" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="AO2" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="AP2" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="AQ2" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="AR2" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="AS2">
         <v>2019</v>
       </c>
       <c r="AX2" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
@@ -3205,40 +3157,40 @@
         <v>443</v>
       </c>
       <c r="Z3" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA3" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB3" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="AC3" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AD3" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="AE3" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="AG3" t="s">
         <v>52</v>
       </c>
       <c r="AR3" t="s">
+        <v>731</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>744</v>
+      </c>
+      <c r="AW3" t="s">
         <v>751</v>
       </c>
-      <c r="AT3" t="s">
-        <v>764</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>771</v>
-      </c>
       <c r="AX3" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="AY3" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
@@ -3300,25 +3252,25 @@
         <v>443</v>
       </c>
       <c r="AA4" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB4" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="AC4" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="AG4" t="s">
         <v>53</v>
       </c>
       <c r="AJ4" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="AK4" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="AX4" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="AY4">
         <v>2023</v>
@@ -3379,29 +3331,23 @@
       <c r="S5" t="s">
         <v>421</v>
       </c>
-      <c r="V5" t="s">
-        <v>449</v>
-      </c>
-      <c r="W5" t="s">
-        <v>126</v>
-      </c>
       <c r="Z5" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA5" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB5" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AC5" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="AD5" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="AE5" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="AG5" t="s">
         <v>54</v>
@@ -3410,10 +3356,10 @@
         <v>2019</v>
       </c>
       <c r="AX5" t="s">
-        <v>775</v>
-      </c>
-      <c r="AY5">
-        <v>2023</v>
+        <v>755</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.2">
@@ -3465,50 +3411,44 @@
       <c r="U6" t="s">
         <v>443</v>
       </c>
-      <c r="V6" t="s">
-        <v>450</v>
-      </c>
-      <c r="W6" t="s">
-        <v>127</v>
-      </c>
       <c r="Z6" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA6" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB6" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AC6" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="AD6" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="AE6" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="AG6" t="s">
         <v>55</v>
       </c>
       <c r="AJ6" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="AK6" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="AQ6" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="AR6">
         <v>2012</v>
       </c>
       <c r="AX6" t="s">
-        <v>775</v>
-      </c>
-      <c r="AY6">
-        <v>2023</v>
+        <v>755</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
@@ -3572,12 +3512,6 @@
       <c r="U7" t="s">
         <v>446</v>
       </c>
-      <c r="V7" t="s">
-        <v>451</v>
-      </c>
-      <c r="W7" t="s">
-        <v>461</v>
-      </c>
       <c r="X7" t="s">
         <v>444</v>
       </c>
@@ -3585,55 +3519,55 @@
         <v>446</v>
       </c>
       <c r="Z7" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA7" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB7" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="AC7" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="AD7" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="AE7" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="AG7" t="s">
         <v>56</v>
       </c>
       <c r="AJ7" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="AK7" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="AL7" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="AM7" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="AN7" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="AO7" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="AR7" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="AS7">
         <v>2021</v>
       </c>
       <c r="AX7" t="s">
-        <v>777</v>
-      </c>
-      <c r="AY7">
-        <v>2023</v>
+        <v>757</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
@@ -3697,12 +3631,6 @@
       <c r="U8" t="s">
         <v>443</v>
       </c>
-      <c r="V8" t="s">
-        <v>452</v>
-      </c>
-      <c r="W8" t="s">
-        <v>462</v>
-      </c>
       <c r="X8" t="s">
         <v>443</v>
       </c>
@@ -3710,10 +3638,10 @@
         <v>443</v>
       </c>
       <c r="Z8" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA8" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB8" t="s">
         <v>389</v>
@@ -3722,37 +3650,37 @@
         <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AE8" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="AG8" t="s">
         <v>57</v>
       </c>
       <c r="AL8" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="AM8" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="AN8" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="AO8" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="AP8" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="AQ8" t="s">
+        <v>721</v>
+      </c>
+      <c r="AS8" t="s">
         <v>741</v>
       </c>
-      <c r="AS8" t="s">
-        <v>761</v>
-      </c>
-      <c r="AY8">
-        <v>2023</v>
+      <c r="AY8" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
@@ -3810,50 +3738,44 @@
       <c r="S9" t="s">
         <v>424</v>
       </c>
-      <c r="V9" t="s">
-        <v>390</v>
-      </c>
-      <c r="W9" t="s">
-        <v>424</v>
-      </c>
       <c r="Z9" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA9" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB9" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AC9" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="AD9" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="AE9" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="AG9" t="s">
         <v>58</v>
       </c>
       <c r="AR9" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="AS9">
         <v>2022</v>
       </c>
       <c r="AU9" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="AW9" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="AX9" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="AY9" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
@@ -3912,49 +3834,49 @@
         <v>425</v>
       </c>
       <c r="Z10" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA10" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB10" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="AC10" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AD10" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="AE10" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="AG10" t="s">
         <v>59</v>
       </c>
       <c r="AJ10" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="AK10" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="AL10" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="AM10" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="AN10" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="AO10" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="AR10">
         <v>2019</v>
       </c>
       <c r="AU10" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="AY10">
         <v>2022</v>
@@ -4000,59 +3922,53 @@
       <c r="O11">
         <v>6466</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Z11" t="s">
         <v>453</v>
       </c>
-      <c r="W11" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>473</v>
-      </c>
       <c r="AA11" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB11" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="AC11" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="AD11">
         <v>4135853797</v>
       </c>
       <c r="AE11" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="AG11" t="s">
         <v>60</v>
       </c>
       <c r="AJ11" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="AK11" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="AL11" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="AM11" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="AN11" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="AO11" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="AR11">
         <v>2022</v>
       </c>
       <c r="AX11" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="AY11" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
@@ -4123,43 +4039,43 @@
         <v>443</v>
       </c>
       <c r="Z12" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA12" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB12" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="AC12" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="AD12">
         <v>6175738013</v>
       </c>
       <c r="AE12" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="AF12" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="AG12" t="s">
         <v>61</v>
       </c>
       <c r="AR12" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="AT12" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="AU12" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="AX12" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="AY12" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
@@ -4230,22 +4146,22 @@
         <v>443</v>
       </c>
       <c r="Z13" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA13" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB13" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="AC13" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="AD13" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="AE13" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="AG13" t="s">
         <v>62</v>
@@ -4254,10 +4170,10 @@
         <v>2012</v>
       </c>
       <c r="AX13" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="AY13" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
@@ -4324,59 +4240,53 @@
       <c r="U14" t="s">
         <v>443</v>
       </c>
-      <c r="V14" t="s">
-        <v>454</v>
-      </c>
-      <c r="W14" t="s">
-        <v>463</v>
-      </c>
       <c r="Z14" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA14" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB14" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AC14" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AG14" t="s">
         <v>63</v>
       </c>
       <c r="AJ14" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="AK14" t="s">
         <v>135</v>
       </c>
       <c r="AL14" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="AM14" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="AN14" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="AO14" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="AP14" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="AQ14" t="s">
+        <v>722</v>
+      </c>
+      <c r="AS14" t="s">
         <v>742</v>
       </c>
-      <c r="AS14" t="s">
-        <v>762</v>
-      </c>
       <c r="AX14" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="AY14" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
@@ -4440,62 +4350,56 @@
       <c r="U15" t="s">
         <v>447</v>
       </c>
-      <c r="V15" t="s">
-        <v>455</v>
-      </c>
-      <c r="W15" t="s">
-        <v>464</v>
-      </c>
       <c r="X15" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="Y15" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="Z15" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA15" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB15" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="AC15" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="AD15" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="AE15" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="AF15" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="AG15" t="s">
         <v>64</v>
       </c>
       <c r="AJ15" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="AK15" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="AL15" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="AM15" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="AN15" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="AO15" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="AR15" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="AS15">
         <v>2018</v>
@@ -4504,13 +4408,13 @@
         <v>2017</v>
       </c>
       <c r="AW15" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="AX15" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="AY15" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
@@ -4575,31 +4479,31 @@
         <v>443</v>
       </c>
       <c r="Z16" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA16" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB16" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="AC16" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="AD16" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="AG16" t="s">
         <v>65</v>
       </c>
       <c r="AR16" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="AT16" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="AY16" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.2">
@@ -4670,46 +4574,46 @@
         <v>443</v>
       </c>
       <c r="Z17" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA17" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB17" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AC17" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="AD17" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="AG17" t="s">
         <v>66</v>
       </c>
       <c r="AJ17" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="AK17" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="AL17" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="AM17" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="AN17" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="AO17" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="AP17" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="AQ17" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="AY17">
         <v>2023</v>
@@ -4783,19 +4687,19 @@
         <v>443</v>
       </c>
       <c r="Z18" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA18" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB18" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="AC18" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="AD18" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="AG18" t="s">
         <v>67</v>
@@ -4804,7 +4708,7 @@
         <v>2012</v>
       </c>
       <c r="AX18" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="AY18">
         <v>2023</v>
@@ -4878,52 +4782,52 @@
         <v>443</v>
       </c>
       <c r="Z19" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA19" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB19" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="AC19" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="AD19" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="AG19" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="AJ19" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="AK19" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="AL19" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="AM19" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="AN19" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="AO19" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="AP19" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="AQ19" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="AX19" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="AY19" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
@@ -4981,53 +4885,47 @@
       <c r="S20" t="s">
         <v>434</v>
       </c>
-      <c r="V20" t="s">
-        <v>456</v>
-      </c>
-      <c r="W20" t="s">
-        <v>465</v>
-      </c>
       <c r="Z20" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB20" t="s">
         <v>473</v>
       </c>
-      <c r="AA20" t="s">
-        <v>473</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>493</v>
-      </c>
       <c r="AC20" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="AE20" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="AG20" t="s">
         <v>69</v>
       </c>
       <c r="AJ20" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="AK20" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="AL20" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="AM20" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="AN20" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="AO20" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="AP20" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="AQ20" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="AR20">
         <v>2019</v>
@@ -5036,10 +4934,10 @@
         <v>2014</v>
       </c>
       <c r="AX20" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="AY20" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
@@ -5094,59 +4992,53 @@
       <c r="S21" t="s">
         <v>435</v>
       </c>
-      <c r="V21" t="s">
-        <v>457</v>
-      </c>
-      <c r="W21" t="s">
-        <v>466</v>
-      </c>
       <c r="Z21" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA21" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB21" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="AC21" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="AE21" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="AG21" t="s">
         <v>70</v>
       </c>
       <c r="AJ21" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="AK21" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="AN21" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="AO21" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="AP21" t="s">
+        <v>715</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>726</v>
+      </c>
+      <c r="AR21" t="s">
         <v>735</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>746</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>755</v>
-      </c>
       <c r="AW21" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="AX21" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="AY21" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
@@ -5187,16 +5079,16 @@
         <v>181</v>
       </c>
       <c r="AB22" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="AC22" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="AD22" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="AE22" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="AG22" t="s">
         <v>71</v>
@@ -5267,55 +5159,55 @@
         <v>443</v>
       </c>
       <c r="Z23" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA23" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB23" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="AC23" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="AD23" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="AE23" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="AG23" t="s">
         <v>72</v>
       </c>
       <c r="AJ23" t="s">
+        <v>623</v>
+      </c>
+      <c r="AK23" t="s">
         <v>643</v>
       </c>
-      <c r="AK23" t="s">
-        <v>663</v>
-      </c>
       <c r="AL23" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="AM23" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="AN23" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="AO23" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="AP23" t="s">
+        <v>716</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>727</v>
+      </c>
+      <c r="AR23" t="s">
         <v>736</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>747</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>756</v>
-      </c>
       <c r="AX23" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.2">
@@ -5365,46 +5257,46 @@
         <v>443</v>
       </c>
       <c r="Z24" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA24" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB24" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="AC24" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="AD24" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="AG24" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="AJ24" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK24" t="s">
         <v>644</v>
       </c>
-      <c r="AK24" t="s">
-        <v>664</v>
-      </c>
       <c r="AL24" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="AM24" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="AN24" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="AO24" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="AR24">
         <v>2019</v>
       </c>
       <c r="AY24" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.2">
@@ -5469,40 +5361,40 @@
         <v>443</v>
       </c>
       <c r="Z25" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA25" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB25" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="AC25" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="AD25" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="AG25" t="s">
         <v>74</v>
       </c>
       <c r="AJ25" t="s">
+        <v>625</v>
+      </c>
+      <c r="AK25" t="s">
         <v>645</v>
       </c>
-      <c r="AK25" t="s">
-        <v>665</v>
-      </c>
       <c r="AL25" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="AM25" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="AN25" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="AO25" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="AR25">
         <v>2019</v>
@@ -5511,7 +5403,7 @@
         <v>2012</v>
       </c>
       <c r="AY25" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.2">
@@ -5582,28 +5474,28 @@
         <v>443</v>
       </c>
       <c r="Z26" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA26" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB26" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="AC26" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="AG26" t="s">
         <v>75</v>
       </c>
       <c r="AJ26" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK26" t="s">
         <v>646</v>
       </c>
-      <c r="AK26" t="s">
-        <v>666</v>
-      </c>
       <c r="AX26" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.2">
@@ -5667,12 +5559,6 @@
       <c r="U27" t="s">
         <v>443</v>
       </c>
-      <c r="V27" t="s">
-        <v>458</v>
-      </c>
-      <c r="W27" t="s">
-        <v>148</v>
-      </c>
       <c r="X27" t="s">
         <v>443</v>
       </c>
@@ -5680,34 +5566,34 @@
         <v>443</v>
       </c>
       <c r="Z27" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA27" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB27" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AC27" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="AD27" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="AE27" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="AG27" t="s">
         <v>76</v>
       </c>
       <c r="AR27" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="AX27" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="AY27" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.2">
@@ -5756,12 +5642,6 @@
       <c r="U28" t="s">
         <v>443</v>
       </c>
-      <c r="V28" t="s">
-        <v>459</v>
-      </c>
-      <c r="W28" t="s">
-        <v>467</v>
-      </c>
       <c r="X28" t="s">
         <v>443</v>
       </c>
@@ -5769,25 +5649,25 @@
         <v>443</v>
       </c>
       <c r="Z28" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA28" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB28" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="AC28" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="AD28" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="AG28" t="s">
         <v>77</v>
       </c>
       <c r="AY28" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.2">
@@ -5834,55 +5714,55 @@
         <v>8145</v>
       </c>
       <c r="Z29" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA29" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB29" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="AC29" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="AD29" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="AE29" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="AF29" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="AG29" t="s">
         <v>78</v>
       </c>
       <c r="AJ29" t="s">
+        <v>627</v>
+      </c>
+      <c r="AK29" t="s">
         <v>647</v>
       </c>
-      <c r="AK29" t="s">
-        <v>667</v>
-      </c>
       <c r="AL29" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="AM29" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="AN29" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="AO29" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="AP29" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="AQ29" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="AX29" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
@@ -5908,13 +5788,13 @@
         <v>167</v>
       </c>
       <c r="Z30" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG30" t="s">
         <v>79</v>
       </c>
       <c r="AX30" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
@@ -5940,13 +5820,13 @@
         <v>307</v>
       </c>
       <c r="Z31" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG31" t="s">
         <v>80</v>
       </c>
       <c r="AX31" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
@@ -5993,22 +5873,22 @@
         <v>445</v>
       </c>
       <c r="Z32" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB32" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="AC32" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="AD32" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="AG32" t="s">
         <v>81</v>
       </c>
       <c r="AX32" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.2">
@@ -6031,7 +5911,7 @@
         <v>463</v>
       </c>
       <c r="Z33" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AG33" t="s">
         <v>82</v>
@@ -6063,16 +5943,16 @@
         <v>41738</v>
       </c>
       <c r="Z34" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG34" t="s">
         <v>83</v>
       </c>
       <c r="AX34" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="AY34" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.2">
@@ -6119,34 +5999,34 @@
         <v>634</v>
       </c>
       <c r="Z35" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB35" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="AC35" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="AD35" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="AG35" t="s">
         <v>84</v>
       </c>
       <c r="AR35" t="s">
+        <v>735</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>743</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>754</v>
+      </c>
+      <c r="AX35" t="s">
         <v>755</v>
       </c>
-      <c r="AS35" t="s">
-        <v>763</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>774</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>775</v>
-      </c>
       <c r="AY35" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.2">
@@ -6202,22 +6082,22 @@
         <v>443</v>
       </c>
       <c r="Z36" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA36" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB36" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="AC36" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="AG36" t="s">
         <v>85</v>
       </c>
       <c r="AX36" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.2">
@@ -6240,7 +6120,7 @@
         <v>959</v>
       </c>
       <c r="Z37" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AG37" t="s">
         <v>86</v>
@@ -6317,28 +6197,28 @@
         <v>443</v>
       </c>
       <c r="Z38" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA38" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB38" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="AC38" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="AD38" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="AG38" t="s">
         <v>87</v>
       </c>
       <c r="AR38" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="AX38" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.2">
@@ -6409,25 +6289,25 @@
         <v>443</v>
       </c>
       <c r="Z39" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA39" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB39" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="AC39" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AD39" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="AG39" t="s">
         <v>88</v>
       </c>
       <c r="AR39" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.2">
@@ -6486,10 +6366,10 @@
         <v>440</v>
       </c>
       <c r="Z40" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA40" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB40" t="s">
         <v>408</v>
@@ -6501,10 +6381,10 @@
         <v>89</v>
       </c>
       <c r="AX40" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="AY40" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.2">
@@ -6575,25 +6455,25 @@
         <v>443</v>
       </c>
       <c r="Z41" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA41" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB41" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="AC41" t="s">
         <v>157</v>
       </c>
       <c r="AD41" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="AG41" t="s">
         <v>90</v>
       </c>
       <c r="AJ41" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.2">
@@ -6664,10 +6544,10 @@
         <v>443</v>
       </c>
       <c r="Z42" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA42" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB42" t="s">
         <v>410</v>
@@ -6676,13 +6556,13 @@
         <v>441</v>
       </c>
       <c r="AD42" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="AG42" t="s">
         <v>91</v>
       </c>
       <c r="AX42" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.2">
@@ -6741,19 +6621,19 @@
         <v>443</v>
       </c>
       <c r="Z43" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB43" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="AC43" t="s">
         <v>159</v>
       </c>
       <c r="AD43" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="AG43" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.2">
@@ -6779,7 +6659,7 @@
         <v>1803</v>
       </c>
       <c r="Z44" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG44" t="s">
         <v>93</v>
@@ -6808,7 +6688,7 @@
         <v>1963</v>
       </c>
       <c r="Z45" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AG45" t="s">
         <v>94</v>
@@ -6840,13 +6720,13 @@
         <v>2445</v>
       </c>
       <c r="Z46" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AG46" t="s">
         <v>95</v>
       </c>
       <c r="AY46" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.2">
@@ -6914,34 +6794,34 @@
         <v>443</v>
       </c>
       <c r="Z47" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA47" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB47" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="AC47" t="s">
         <v>160</v>
       </c>
       <c r="AD47" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE47" t="s">
         <v>599</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>619</v>
       </c>
       <c r="AG47" t="s">
         <v>96</v>
       </c>
       <c r="AJ47" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="AX47" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="AY47" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.2">
@@ -7006,25 +6886,25 @@
         <v>443</v>
       </c>
       <c r="AA48" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB48" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="AC48" t="s">
         <v>161</v>
       </c>
       <c r="AD48" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="AG48" t="s">
         <v>97</v>
       </c>
       <c r="AX48" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="AY48" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.2">
@@ -7059,13 +6939,13 @@
         <v>4107</v>
       </c>
       <c r="Z49" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB49" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="AC49" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="AG49" t="s">
         <v>98</v>
@@ -7106,22 +6986,22 @@
         <v>4219</v>
       </c>
       <c r="Z50" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB50" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="AC50" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="AG50" t="s">
         <v>99</v>
       </c>
       <c r="AX50" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="AY50" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.2">
@@ -7162,10 +7042,10 @@
         <v>4283</v>
       </c>
       <c r="Z51" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB51" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="AC51" t="s">
         <v>162</v>
@@ -7242,19 +7122,19 @@
         <v>443</v>
       </c>
       <c r="Z52" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA52" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB52" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="AC52" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="AE52" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="AG52" t="s">
         <v>101</v>
@@ -7263,10 +7143,10 @@
         <v>85.404166666666669</v>
       </c>
       <c r="AT52" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="AX52" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.2">
@@ -7310,22 +7190,22 @@
         <v>5008</v>
       </c>
       <c r="Z53" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB53" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="AC53" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="AG53" t="s">
         <v>102</v>
       </c>
       <c r="AJ53" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="AX53" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.2">
@@ -7351,7 +7231,7 @@
         <v>5930</v>
       </c>
       <c r="Z54" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG54" t="s">
         <v>103</v>
@@ -7410,25 +7290,25 @@
         <v>443</v>
       </c>
       <c r="Z55" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA55" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB55" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="AC55" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="AE55" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="AG55" t="s">
         <v>104</v>
       </c>
       <c r="AY55" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.2">
@@ -7454,13 +7334,13 @@
         <v>6562</v>
       </c>
       <c r="Z56" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s">
         <v>105</v>
       </c>
       <c r="AY56" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.2">
@@ -7522,10 +7402,10 @@
         <v>443</v>
       </c>
       <c r="Z57" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA57" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB57" t="s">
         <v>413</v>
@@ -7537,10 +7417,10 @@
         <v>106</v>
       </c>
       <c r="AR57" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="AX57" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.2">
@@ -7596,19 +7476,19 @@
         <v>414</v>
       </c>
       <c r="Z58" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA58" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB58" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="AC58" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="AD58" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="AG58" t="s">
         <v>107</v>
@@ -7667,28 +7547,28 @@
         <v>443</v>
       </c>
       <c r="Z59" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA59" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB59" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="AC59" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="AD59" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="AG59" t="s">
         <v>108</v>
       </c>
       <c r="AX59" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="AY59" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.2">
@@ -7735,16 +7615,16 @@
         <v>443</v>
       </c>
       <c r="Z60" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA60" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s">
         <v>109</v>
       </c>
       <c r="AX60" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.2">
@@ -7800,25 +7680,25 @@
         <v>443</v>
       </c>
       <c r="Z61" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA61" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB61" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="AC61" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="AG61" t="s">
         <v>110</v>
       </c>
       <c r="AX61" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="AY61" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.2">
@@ -7844,7 +7724,7 @@
         <v>3894</v>
       </c>
       <c r="Z62" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG62" t="s">
         <v>111</v>
@@ -7911,12 +7791,6 @@
       <c r="U63" t="s">
         <v>443</v>
       </c>
-      <c r="V63" t="s">
-        <v>460</v>
-      </c>
-      <c r="W63" t="s">
-        <v>468</v>
-      </c>
       <c r="X63" t="s">
         <v>443</v>
       </c>
@@ -7924,22 +7798,25 @@
         <v>443</v>
       </c>
       <c r="Z63" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA63" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB63" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AC63" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="AG63" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="AT63">
         <v>2013</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.2">
@@ -7995,28 +7872,28 @@
         <v>443</v>
       </c>
       <c r="Z64" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA64" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB64" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="AC64" t="s">
         <v>171</v>
       </c>
       <c r="AD64" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="AG64" t="s">
         <v>113</v>
       </c>
       <c r="AX64" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="AY64" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.2">
@@ -8087,16 +7964,16 @@
         <v>443</v>
       </c>
       <c r="Z65" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AA65" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AB65" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="AC65" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AG65" t="s">
         <v>114</v>
@@ -8105,7 +7982,7 @@
         <v>2019</v>
       </c>
       <c r="AX65" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.2">
@@ -8158,10 +8035,10 @@
         <v>442</v>
       </c>
       <c r="Z66" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA66" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG66" t="s">
         <v>115</v>
@@ -8220,22 +8097,22 @@
         <v>443</v>
       </c>
       <c r="Z67" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA67" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB67" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="AC67" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="AG67" t="s">
         <v>116</v>
       </c>
       <c r="AX67" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.2">
@@ -8306,55 +8183,55 @@
         <v>443</v>
       </c>
       <c r="Z68" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA68" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB68" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AC68" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="AE68" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="AG68" t="s">
         <v>117</v>
       </c>
       <c r="AJ68" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="AK68" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="AL68" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="AM68" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="AN68" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="AO68" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="AP68" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="AQ68" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="AR68" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="AS68">
         <v>2013</v>
       </c>
       <c r="AX68" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="AY68">
         <v>2016</v>
@@ -8407,40 +8284,40 @@
         <v>443</v>
       </c>
       <c r="X69" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="Y69" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="Z69" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA69" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB69" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="AC69" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="AD69">
         <v>8606852046</v>
       </c>
       <c r="AE69" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="AG69" t="s">
         <v>118</v>
       </c>
       <c r="AJ69" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="AS69">
         <v>2016</v>
       </c>
       <c r="AX69" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.2">
@@ -8496,22 +8373,22 @@
         <v>443</v>
       </c>
       <c r="Z70" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AA70" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB70" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="AC70" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="AG70" t="s">
         <v>119</v>
       </c>
       <c r="AX70" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="71" spans="1:51" x14ac:dyDescent="0.2">
@@ -8537,7 +8414,7 @@
         <v>8085</v>
       </c>
       <c r="Z71" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s">
         <v>120</v>
@@ -8587,19 +8464,19 @@
         <v>8253</v>
       </c>
       <c r="AB72" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="AC72" t="s">
         <v>178</v>
       </c>
       <c r="AD72" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="AG72" t="s">
         <v>121</v>
       </c>
       <c r="AX72" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.2">
@@ -8625,13 +8502,13 @@
         <v>8415</v>
       </c>
       <c r="Z73" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AG73" t="s">
         <v>122</v>
       </c>
       <c r="AY73" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F73B0A-F0F0-724A-9DD1-63A06ACA3DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AAECB-E68E-E640-93AA-31BF42B5AB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="801">
   <si>
     <t>Member/Non-Member - Organization</t>
   </si>
@@ -2428,9 +2428,6 @@
   </si>
   <si>
     <t>2015; 2016; 2017; 2018; 2019</t>
-  </si>
-  <si>
-    <t>2024</t>
   </si>
   <si>
     <t>2016; 2017; 2018; 2019</t>
@@ -2810,15 +2807,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ44" workbookViewId="0">
+      <selection activeCell="AY82" sqref="AY82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="39.33203125" customWidth="1"/>
-    <col min="50" max="50" width="18.5" customWidth="1"/>
-    <col min="51" max="51" width="37.6640625" customWidth="1"/>
+    <col min="50" max="50" width="22" customWidth="1"/>
+    <col min="51" max="51" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
@@ -7815,8 +7811,8 @@
       <c r="AT63">
         <v>2013</v>
       </c>
-      <c r="AY63" t="s">
-        <v>799</v>
+      <c r="AY63">
+        <v>2024</v>
       </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.2">
@@ -7893,7 +7889,7 @@
         <v>773</v>
       </c>
       <c r="AY64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.2">
@@ -8508,7 +8504,7 @@
         <v>122</v>
       </c>
       <c r="AY73" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AAECB-E68E-E640-93AA-31BF42B5AB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="807">
   <si>
     <t>Member/Non-Member - Organization</t>
   </si>
@@ -2286,6 +2280,33 @@
     <t>2011-2017</t>
   </si>
   <si>
+    <t>05/10/2024</t>
+  </si>
+  <si>
+    <t>05/28/2024</t>
+  </si>
+  <si>
+    <t>04/29/2024</t>
+  </si>
+  <si>
+    <t>04/30/2024</t>
+  </si>
+  <si>
+    <t>05/03/2023</t>
+  </si>
+  <si>
+    <t>03/29/2024</t>
+  </si>
+  <si>
+    <t>05/03/2024</t>
+  </si>
+  <si>
+    <t>04/19/2024</t>
+  </si>
+  <si>
+    <t>04/01/1998</t>
+  </si>
+  <si>
     <t>Fall 2020</t>
   </si>
   <si>
@@ -2367,22 +2388,16 @@
     <t>2016; 2023</t>
   </si>
   <si>
-    <t>2023; 2024</t>
-  </si>
-  <si>
-    <t>2022; 2023; 2024</t>
-  </si>
-  <si>
-    <t>2016; 2017; 2018; 2019; 2021; 2022; 2023; 2024</t>
-  </si>
-  <si>
     <t>2022; 2023</t>
   </si>
   <si>
-    <t>2015; 2016; 2017; 2018; 2019; 2021; 2023; 2024</t>
-  </si>
-  <si>
-    <t>2015; 2016; 2017; 2018; 2019; 2021; 2022; 2023; 2024</t>
+    <t>2016; 2017; 2018; 2019; 2021; 2022; 2023</t>
+  </si>
+  <si>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2023</t>
+  </si>
+  <si>
+    <t>2015; 2016; 2017; 2018; 2019; 2021; 2022; 2023</t>
   </si>
   <si>
     <t>2021; 2023</t>
@@ -2391,10 +2406,10 @@
     <t>2017; 2018; 2019; 2021; 2022; 2023</t>
   </si>
   <si>
-    <t>2021; 2022; 2023; 2024</t>
-  </si>
-  <si>
-    <t>2018; 2019; 2022; 2023; 2024</t>
+    <t>2021; 2022; 2023</t>
+  </si>
+  <si>
+    <t>2018; 2019; 2022; 2023</t>
   </si>
   <si>
     <t>2015; 2016; 2017; 2018; 2021</t>
@@ -2403,13 +2418,10 @@
     <t>2019; 2021</t>
   </si>
   <si>
-    <t>2015; 2016; 2017; 2018; 2019; 2021; 2024</t>
-  </si>
-  <si>
-    <t>2016; 2017; 2018; 2019; 2021; 2024</t>
-  </si>
-  <si>
     <t>2015; 2016; 2017; 2018; 2019; 2021</t>
+  </si>
+  <si>
+    <t>2016; 2017; 2018; 2019; 2021</t>
   </si>
   <si>
     <t>2015; 2017</t>
@@ -2439,11 +2451,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2507,21 +2519,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2559,7 +2563,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2593,7 +2597,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2628,10 +2631,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2804,20 +2806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ44" workbookViewId="0">
-      <selection activeCell="AY82" sqref="AY82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="50" max="50" width="22" customWidth="1"/>
-    <col min="51" max="51" width="63.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3085,10 +3081,10 @@
         <v>2019</v>
       </c>
       <c r="AX2" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3180,16 +3176,16 @@
         <v>744</v>
       </c>
       <c r="AW3" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="AX3" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="AY3" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3266,13 +3262,13 @@
         <v>634</v>
       </c>
       <c r="AX4" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -3351,14 +3347,17 @@
       <c r="AR5">
         <v>2019</v>
       </c>
+      <c r="AV5" t="s">
+        <v>751</v>
+      </c>
       <c r="AX5" t="s">
-        <v>755</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>778</v>
+        <v>764</v>
+      </c>
+      <c r="AY5">
+        <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -3441,13 +3440,13 @@
         <v>2012</v>
       </c>
       <c r="AX6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>778</v>
+        <v>764</v>
+      </c>
+      <c r="AY6">
+        <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3559,14 +3558,17 @@
       <c r="AS7">
         <v>2021</v>
       </c>
+      <c r="AV7" t="s">
+        <v>752</v>
+      </c>
       <c r="AX7" t="s">
-        <v>757</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>778</v>
+        <v>766</v>
+      </c>
+      <c r="AY7">
+        <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -3675,11 +3677,14 @@
       <c r="AS8" t="s">
         <v>741</v>
       </c>
-      <c r="AY8" t="s">
-        <v>778</v>
+      <c r="AV8" t="s">
+        <v>753</v>
+      </c>
+      <c r="AY8">
+        <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3764,17 +3769,20 @@
       <c r="AU9" t="s">
         <v>748</v>
       </c>
+      <c r="AV9" t="s">
+        <v>754</v>
+      </c>
       <c r="AW9" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="AX9" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="AY9" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3878,7 +3886,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -3961,13 +3969,13 @@
         <v>2022</v>
       </c>
       <c r="AX11" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="AY11" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -4068,13 +4076,13 @@
         <v>750</v>
       </c>
       <c r="AX12" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="AY12" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -4166,13 +4174,13 @@
         <v>2012</v>
       </c>
       <c r="AX13" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY13" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4278,14 +4286,17 @@
       <c r="AS14" t="s">
         <v>742</v>
       </c>
+      <c r="AV14" t="s">
+        <v>755</v>
+      </c>
       <c r="AX14" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="AY14" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4403,17 +4414,20 @@
       <c r="AT15">
         <v>2017</v>
       </c>
+      <c r="AV15" t="s">
+        <v>753</v>
+      </c>
       <c r="AW15" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="AX15" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY15" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4499,10 +4513,10 @@
         <v>746</v>
       </c>
       <c r="AY16" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -4704,13 +4718,13 @@
         <v>2012</v>
       </c>
       <c r="AX18" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="AY18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -4820,13 +4834,13 @@
         <v>724</v>
       </c>
       <c r="AX19" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="AY19" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -4929,14 +4943,17 @@
       <c r="AT20">
         <v>2014</v>
       </c>
+      <c r="AV20" t="s">
+        <v>756</v>
+      </c>
       <c r="AX20" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY20" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -5027,17 +5044,20 @@
       <c r="AR21" t="s">
         <v>735</v>
       </c>
+      <c r="AV21" t="s">
+        <v>757</v>
+      </c>
       <c r="AW21" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="AX21" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="AY21" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -5093,7 +5113,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -5203,10 +5223,10 @@
         <v>736</v>
       </c>
       <c r="AX23" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -5292,10 +5312,10 @@
         <v>2019</v>
       </c>
       <c r="AY24" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5399,10 +5419,10 @@
         <v>2012</v>
       </c>
       <c r="AY25" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -5491,10 +5511,10 @@
         <v>646</v>
       </c>
       <c r="AX26" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -5585,14 +5605,17 @@
       <c r="AR27" t="s">
         <v>736</v>
       </c>
+      <c r="AV27" t="s">
+        <v>758</v>
+      </c>
       <c r="AX27" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY27" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -5663,10 +5686,10 @@
         <v>77</v>
       </c>
       <c r="AY28" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -5758,10 +5781,10 @@
         <v>728</v>
       </c>
       <c r="AX29" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -5790,10 +5813,10 @@
         <v>79</v>
       </c>
       <c r="AX30" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5822,10 +5845,10 @@
         <v>80</v>
       </c>
       <c r="AX31" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -5884,10 +5907,10 @@
         <v>81</v>
       </c>
       <c r="AX32" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -5913,7 +5936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -5945,13 +5968,13 @@
         <v>83</v>
       </c>
       <c r="AX34" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY34" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -6016,16 +6039,16 @@
         <v>743</v>
       </c>
       <c r="AW35" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="AX35" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY35" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -6093,10 +6116,10 @@
         <v>85</v>
       </c>
       <c r="AX36" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -6125,7 +6148,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -6214,10 +6237,10 @@
         <v>737</v>
       </c>
       <c r="AX38" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -6306,7 +6329,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -6377,13 +6400,13 @@
         <v>89</v>
       </c>
       <c r="AX40" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AY40" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -6472,7 +6495,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:51">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -6558,10 +6581,10 @@
         <v>91</v>
       </c>
       <c r="AX42" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -6632,7 +6655,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:51">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -6661,7 +6684,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -6693,7 +6716,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -6722,10 +6745,10 @@
         <v>95</v>
       </c>
       <c r="AY46" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:51">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -6814,13 +6837,13 @@
         <v>629</v>
       </c>
       <c r="AX47" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="AY47" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:51">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -6897,13 +6920,13 @@
         <v>97</v>
       </c>
       <c r="AX48" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="AY48" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:51">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -6947,7 +6970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:51">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6994,13 +7017,13 @@
         <v>99</v>
       </c>
       <c r="AX50" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="AY50" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -7050,7 +7073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:51">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -7136,16 +7159,16 @@
         <v>101</v>
       </c>
       <c r="AR52" s="2">
-        <v>85.404166666666669</v>
+        <v>85.40416666666667</v>
       </c>
       <c r="AT52" t="s">
         <v>747</v>
       </c>
       <c r="AX52" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:51">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -7201,10 +7224,10 @@
         <v>630</v>
       </c>
       <c r="AX53" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:51">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -7233,7 +7256,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:51">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -7304,10 +7327,10 @@
         <v>104</v>
       </c>
       <c r="AY55" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:51">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -7336,10 +7359,10 @@
         <v>105</v>
       </c>
       <c r="AY56" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -7416,10 +7439,10 @@
         <v>739</v>
       </c>
       <c r="AX57" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:51">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -7490,7 +7513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:51">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -7561,13 +7584,13 @@
         <v>108</v>
       </c>
       <c r="AX59" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="AY59" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:51">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -7620,10 +7643,10 @@
         <v>109</v>
       </c>
       <c r="AX60" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:51">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -7691,13 +7714,13 @@
         <v>110</v>
       </c>
       <c r="AX61" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="AY61" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:51">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -7726,7 +7749,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:51">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -7811,11 +7834,11 @@
       <c r="AT63">
         <v>2013</v>
       </c>
-      <c r="AY63">
-        <v>2024</v>
+      <c r="AV63" t="s">
+        <v>759</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -7886,13 +7909,13 @@
         <v>113</v>
       </c>
       <c r="AX64" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="AY64" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -7978,10 +8001,10 @@
         <v>2019</v>
       </c>
       <c r="AX65" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:51">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -8040,7 +8063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:51">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -8108,10 +8131,10 @@
         <v>116</v>
       </c>
       <c r="AX67" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:51">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -8227,13 +8250,13 @@
         <v>2013</v>
       </c>
       <c r="AX68" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="AY68">
         <v>2016</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -8313,10 +8336,10 @@
         <v>2016</v>
       </c>
       <c r="AX69" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:51">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -8384,10 +8407,10 @@
         <v>119</v>
       </c>
       <c r="AX70" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:51">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -8416,7 +8439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:51">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -8472,10 +8495,10 @@
         <v>121</v>
       </c>
       <c r="AX72" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:51">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -8504,7 +8527,7 @@
         <v>122</v>
       </c>
       <c r="AY73" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/Updated Zone 1 Activity Playground.xlsx
+++ b/Updated Zone 1 Activity Playground.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FB89B-AA05-2E44-BA06-59290344926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2451,11 +2457,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2519,13 +2525,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2563,7 +2577,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2597,6 +2611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2631,9 +2646,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2806,14 +2822,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AV30" sqref="AV30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="48" max="48" width="61.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3084,7 +3105,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3185,7 +3206,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3268,7 +3289,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -3357,7 +3378,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -3446,7 +3467,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3568,7 +3589,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3782,7 +3803,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3886,7 +3907,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -3975,7 +3996,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -4082,7 +4103,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -4180,7 +4201,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4296,7 +4317,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4427,7 +4448,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4516,7 +4537,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -4629,7 +4650,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -4724,7 +4745,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -4840,7 +4861,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -4953,7 +4974,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -5057,7 +5078,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -5113,7 +5134,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -5226,7 +5247,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -5315,7 +5336,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5422,7 +5443,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -5514,7 +5535,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -5615,7 +5636,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -5689,7 +5710,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -5784,7 +5805,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -5816,7 +5837,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5848,7 +5869,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -5910,7 +5931,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -5936,7 +5957,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -5974,7 +5995,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -6048,7 +6069,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -6119,7 +6140,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -6148,7 +6169,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -6240,7 +6261,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -6329,7 +6350,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -6406,7 +6427,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -6495,7 +6516,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -6584,7 +6605,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -6655,7 +6676,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -6684,7 +6705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -6716,7 +6737,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -6748,7 +6769,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -6843,7 +6864,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -6926,7 +6947,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -6970,7 +6991,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -7023,7 +7044,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -7073,7 +7094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -7159,7 +7180,7 @@
         <v>101</v>
       </c>
       <c r="AR52" s="2">
-        <v>85.40416666666667</v>
+        <v>85.404166666666669</v>
       </c>
       <c r="AT52" t="s">
         <v>747</v>
@@ -7168,7 +7189,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -7227,7 +7248,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -7256,7 +7277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -7330,7 +7351,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -7362,7 +7383,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -7442,7 +7463,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -7513,7 +7534,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -7590,7 +7611,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -7646,7 +7667,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -7720,7 +7741,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -7749,7 +7770,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -7838,7 +7859,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -7915,7 +7936,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -8004,7 +8025,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -8063,7 +8084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -8134,7 +8155,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -8256,7 +8277,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -8339,7 +8360,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -8410,7 +8431,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -8439,7 +8460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -8498,7 +8519,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>122</v>
       </c>
